--- a/800 tests pour minishell.xlsx
+++ b/800 tests pour minishell.xlsx
@@ -2660,21 +2660,12 @@
 l$HOLA</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="Ubuntu Mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">total 16
+    <t xml:space="preserve">total 16
 drwx------  2 vietdu91 [...] .
 drwxrwxewt 51 root     [...] ..
 -rwxr-xr-x  8 vietdu91 [...] crashtest.c
 [...]
 </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">export HOLA="s -la" 
@@ -7497,8 +7488,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF4000"/>
-        <bgColor rgb="FFC9211E"/>
+        <fgColor rgb="FFC9211E"/>
+        <bgColor rgb="FF993366"/>
       </patternFill>
     </fill>
     <fill>
@@ -7667,16 +7658,16 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -7699,16 +7690,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="16" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -8040,7 +8031,7 @@
       <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFF1C232"/>
       <rgbColor rgb="FFE69138"/>
-      <rgbColor rgb="FFFF4000"/>
+      <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666666"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -8068,12 +8059,12 @@
   <dimension ref="A1:AB746"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E80" activeCellId="0" sqref="E80"/>
+      <selection pane="bottomLeft" activeCell="H102" activeCellId="0" sqref="H102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="12.25"/>
@@ -9146,11 +9137,11 @@
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
-      <c r="G68" s="22"/>
+      <c r="G68" s="12"/>
       <c r="H68" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="I68" s="23"/>
+      <c r="I68" s="22"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="14" t="s">
@@ -9213,7 +9204,7 @@
       <c r="I72" s="21"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="24" t="s">
+      <c r="A73" s="23" t="s">
         <v>116</v>
       </c>
       <c r="B73" s="19"/>
@@ -9251,7 +9242,7 @@
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
-      <c r="G75" s="22"/>
+      <c r="G75" s="24"/>
       <c r="H75" s="14" t="s">
         <v>9</v>
       </c>
@@ -9266,7 +9257,7 @@
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
-      <c r="G76" s="22"/>
+      <c r="G76" s="24"/>
       <c r="H76" s="14" t="s">
         <v>9</v>
       </c>
@@ -9317,7 +9308,7 @@
       </c>
       <c r="I79" s="21"/>
     </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="14" t="s">
         <v>128</v>
       </c>
@@ -9371,7 +9362,7 @@
       <c r="D83" s="11"/>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
-      <c r="G83" s="22"/>
+      <c r="G83" s="24"/>
       <c r="H83" s="14" t="s">
         <v>135</v>
       </c>
@@ -9506,7 +9497,7 @@
       <c r="D92" s="11"/>
       <c r="E92" s="11"/>
       <c r="F92" s="11"/>
-      <c r="G92" s="30"/>
+      <c r="G92" s="20"/>
       <c r="H92" s="15" t="s">
         <v>151</v>
       </c>
@@ -9567,7 +9558,7 @@
       <c r="E96" s="11"/>
       <c r="F96" s="11"/>
       <c r="G96" s="12"/>
-      <c r="H96" s="31" t="s">
+      <c r="H96" s="30" t="s">
         <v>159</v>
       </c>
       <c r="I96" s="21"/>
@@ -9582,7 +9573,7 @@
       <c r="E97" s="11"/>
       <c r="F97" s="11"/>
       <c r="G97" s="12"/>
-      <c r="H97" s="32" t="s">
+      <c r="H97" s="31" t="s">
         <v>161</v>
       </c>
       <c r="I97" s="21"/>
@@ -9596,7 +9587,7 @@
       <c r="D98" s="11"/>
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
-      <c r="G98" s="22"/>
+      <c r="G98" s="12"/>
       <c r="H98" s="15" t="s">
         <v>163</v>
       </c>
@@ -9626,7 +9617,7 @@
       <c r="D100" s="11"/>
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
-      <c r="G100" s="22"/>
+      <c r="G100" s="24"/>
       <c r="H100" s="26" t="s">
         <v>167</v>
       </c>
@@ -9641,7 +9632,7 @@
       <c r="D101" s="11"/>
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
-      <c r="G101" s="11"/>
+      <c r="G101" s="12"/>
       <c r="H101" s="15" t="s">
         <v>169</v>
       </c>
@@ -9656,8 +9647,8 @@
       <c r="D102" s="11"/>
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
-      <c r="G102" s="11"/>
-      <c r="H102" s="31" t="s">
+      <c r="G102" s="12"/>
+      <c r="H102" s="30" t="s">
         <v>171</v>
       </c>
       <c r="I102" s="21"/>
@@ -9671,8 +9662,8 @@
       <c r="D103" s="11"/>
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="32" t="s">
+      <c r="G103" s="32"/>
+      <c r="H103" s="31" t="s">
         <v>161</v>
       </c>
       <c r="I103" s="21"/>
@@ -9686,8 +9677,8 @@
       <c r="D104" s="11"/>
       <c r="E104" s="11"/>
       <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
-      <c r="H104" s="32" t="s">
+      <c r="G104" s="12"/>
+      <c r="H104" s="31" t="s">
         <v>9</v>
       </c>
       <c r="I104" s="21"/>
@@ -9941,7 +9932,7 @@
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
       <c r="G120" s="11"/>
-      <c r="H120" s="32" t="s">
+      <c r="H120" s="31" t="s">
         <v>161</v>
       </c>
       <c r="I120" s="35"/>
@@ -10087,7 +10078,7 @@
       </c>
       <c r="I129" s="33"/>
     </row>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="14" t="s">
         <v>210</v>
       </c>
@@ -10102,7 +10093,7 @@
       </c>
       <c r="I130" s="33"/>
     </row>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="14" t="s">
         <v>212</v>
       </c>
@@ -11240,7 +11231,7 @@
       <c r="I205" s="13"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="24" t="s">
+      <c r="A206" s="23" t="s">
         <v>324</v>
       </c>
       <c r="B206" s="10"/>
@@ -12784,7 +12775,7 @@
       <c r="E307" s="11"/>
       <c r="F307" s="11"/>
       <c r="G307" s="11"/>
-      <c r="H307" s="32" t="s">
+      <c r="H307" s="31" t="s">
         <v>161</v>
       </c>
       <c r="I307" s="13"/>

--- a/800 tests pour minishell.xlsx
+++ b/800 tests pour minishell.xlsx
@@ -7413,7 +7413,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7429,7 +7429,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE69138"/>
-        <bgColor rgb="FFFF8080"/>
+        <bgColor rgb="FFFF8000"/>
       </patternFill>
     </fill>
     <fill>
@@ -7482,14 +7482,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFC9211E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC9211E"/>
-        <bgColor rgb="FF993366"/>
+        <fgColor rgb="FFFF8000"/>
+        <bgColor rgb="FFFF6600"/>
       </patternFill>
     </fill>
     <fill>
@@ -7569,7 +7563,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -7666,14 +7660,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="16" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -7698,7 +7684,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -7854,7 +7844,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="14" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="13" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8007,7 +7997,7 @@
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCFE2F3"/>
       <rgbColor rgb="FF741B47"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFE69138"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFC9DAF8"/>
       <rgbColor rgb="FF000080"/>
@@ -8030,7 +8020,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFF1C232"/>
-      <rgbColor rgb="FFE69138"/>
+      <rgbColor rgb="FFFF8000"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666666"/>
       <rgbColor rgb="FF969696"/>
@@ -8059,12 +8049,12 @@
   <dimension ref="A1:AB746"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A713" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H102" activeCellId="0" sqref="H102"/>
+      <selection pane="bottomLeft" activeCell="H723" activeCellId="0" sqref="H723"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="12.25"/>
@@ -9242,7 +9232,7 @@
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
-      <c r="G75" s="24"/>
+      <c r="G75" s="12"/>
       <c r="H75" s="14" t="s">
         <v>9</v>
       </c>
@@ -9257,7 +9247,7 @@
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
-      <c r="G76" s="24"/>
+      <c r="G76" s="12"/>
       <c r="H76" s="14" t="s">
         <v>9</v>
       </c>
@@ -9272,7 +9262,7 @@
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
-      <c r="G77" s="25"/>
+      <c r="G77" s="20"/>
       <c r="H77" s="15" t="s">
         <v>123</v>
       </c>
@@ -9362,7 +9352,7 @@
       <c r="D83" s="11"/>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
-      <c r="G83" s="24"/>
+      <c r="G83" s="12"/>
       <c r="H83" s="14" t="s">
         <v>135</v>
       </c>
@@ -9393,7 +9383,7 @@
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
       <c r="G85" s="12"/>
-      <c r="H85" s="26" t="s">
+      <c r="H85" s="24" t="s">
         <v>138</v>
       </c>
       <c r="I85" s="21"/>
@@ -9408,7 +9398,7 @@
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
       <c r="G86" s="12"/>
-      <c r="H86" s="26" t="s">
+      <c r="H86" s="24" t="s">
         <v>140</v>
       </c>
       <c r="I86" s="21"/>
@@ -9417,13 +9407,13 @@
       <c r="A87" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="B87" s="27"/>
+      <c r="B87" s="25"/>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
       <c r="G87" s="12"/>
-      <c r="H87" s="28" t="s">
+      <c r="H87" s="26" t="s">
         <v>142</v>
       </c>
       <c r="I87" s="21"/>
@@ -9447,7 +9437,7 @@
       <c r="A89" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="B89" s="29"/>
+      <c r="B89" s="27"/>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
       <c r="E89" s="11"/>
@@ -9483,7 +9473,7 @@
       <c r="E91" s="11"/>
       <c r="F91" s="11"/>
       <c r="G91" s="12"/>
-      <c r="H91" s="26" t="s">
+      <c r="H91" s="24" t="s">
         <v>149</v>
       </c>
       <c r="I91" s="21"/>
@@ -9558,7 +9548,7 @@
       <c r="E96" s="11"/>
       <c r="F96" s="11"/>
       <c r="G96" s="12"/>
-      <c r="H96" s="30" t="s">
+      <c r="H96" s="28" t="s">
         <v>159</v>
       </c>
       <c r="I96" s="21"/>
@@ -9573,7 +9563,7 @@
       <c r="E97" s="11"/>
       <c r="F97" s="11"/>
       <c r="G97" s="12"/>
-      <c r="H97" s="31" t="s">
+      <c r="H97" s="29" t="s">
         <v>161</v>
       </c>
       <c r="I97" s="21"/>
@@ -9603,7 +9593,7 @@
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
       <c r="G99" s="12"/>
-      <c r="H99" s="26" t="s">
+      <c r="H99" s="24" t="s">
         <v>165</v>
       </c>
       <c r="I99" s="21"/>
@@ -9617,8 +9607,8 @@
       <c r="D100" s="11"/>
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
-      <c r="G100" s="24"/>
-      <c r="H100" s="26" t="s">
+      <c r="G100" s="30"/>
+      <c r="H100" s="24" t="s">
         <v>167</v>
       </c>
       <c r="I100" s="21"/>
@@ -9638,7 +9628,7 @@
       </c>
       <c r="I101" s="21"/>
     </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="15" t="s">
         <v>170</v>
       </c>
@@ -9648,7 +9638,7 @@
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
       <c r="G102" s="12"/>
-      <c r="H102" s="30" t="s">
+      <c r="H102" s="28" t="s">
         <v>171</v>
       </c>
       <c r="I102" s="21"/>
@@ -9662,8 +9652,8 @@
       <c r="D103" s="11"/>
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
-      <c r="G103" s="32"/>
-      <c r="H103" s="31" t="s">
+      <c r="G103" s="31"/>
+      <c r="H103" s="29" t="s">
         <v>161</v>
       </c>
       <c r="I103" s="21"/>
@@ -9678,7 +9668,7 @@
       <c r="E104" s="11"/>
       <c r="F104" s="11"/>
       <c r="G104" s="12"/>
-      <c r="H104" s="31" t="s">
+      <c r="H104" s="29" t="s">
         <v>9</v>
       </c>
       <c r="I104" s="21"/>
@@ -9692,11 +9682,11 @@
       <c r="D105" s="11"/>
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
+      <c r="G105" s="12"/>
       <c r="H105" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="I105" s="33"/>
+      <c r="I105" s="32"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="14" t="s">
@@ -9707,11 +9697,11 @@
       <c r="D106" s="11"/>
       <c r="E106" s="11"/>
       <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
+      <c r="G106" s="12"/>
       <c r="H106" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="I106" s="33"/>
+      <c r="I106" s="32"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="14" t="s">
@@ -9722,11 +9712,11 @@
       <c r="D107" s="11"/>
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
+      <c r="G107" s="12"/>
       <c r="H107" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="I107" s="33"/>
+      <c r="I107" s="32"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="14" t="s">
@@ -9737,11 +9727,11 @@
       <c r="D108" s="11"/>
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
-      <c r="G108" s="11"/>
+      <c r="G108" s="12"/>
       <c r="H108" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="I108" s="33"/>
+      <c r="I108" s="32"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="14" t="s">
@@ -9756,7 +9746,7 @@
       <c r="H109" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="I109" s="33"/>
+      <c r="I109" s="32"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="14" t="s">
@@ -9771,7 +9761,7 @@
       <c r="H110" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="I110" s="33"/>
+      <c r="I110" s="32"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="14" t="s">
@@ -9786,7 +9776,7 @@
       <c r="H111" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="I111" s="33"/>
+      <c r="I111" s="32"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="14" t="s">
@@ -9801,7 +9791,7 @@
       <c r="H112" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="I112" s="33"/>
+      <c r="I112" s="32"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="14" t="s">
@@ -9816,7 +9806,7 @@
       <c r="H113" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="I113" s="33"/>
+      <c r="I113" s="32"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="14" t="s">
@@ -9830,10 +9820,10 @@
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
       <c r="G114" s="11"/>
-      <c r="H114" s="26" t="s">
+      <c r="H114" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="I114" s="33"/>
+      <c r="I114" s="32"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="14" t="s">
@@ -9847,7 +9837,7 @@
       <c r="E115" s="11"/>
       <c r="F115" s="11"/>
       <c r="G115" s="11"/>
-      <c r="H115" s="34" t="s">
+      <c r="H115" s="33" t="s">
         <v>191</v>
       </c>
       <c r="I115" s="21"/>
@@ -9864,10 +9854,10 @@
       <c r="E116" s="11"/>
       <c r="F116" s="11"/>
       <c r="G116" s="11"/>
-      <c r="H116" s="26" t="s">
+      <c r="H116" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="I116" s="35"/>
+      <c r="I116" s="34"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="14" t="s">
@@ -9881,10 +9871,10 @@
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
       <c r="G117" s="11"/>
-      <c r="H117" s="26" t="s">
+      <c r="H117" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="I117" s="35"/>
+      <c r="I117" s="34"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="14" t="s">
@@ -9898,10 +9888,10 @@
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
       <c r="G118" s="11"/>
-      <c r="H118" s="26" t="s">
+      <c r="H118" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="I118" s="35"/>
+      <c r="I118" s="34"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="14" t="s">
@@ -9915,10 +9905,10 @@
       <c r="E119" s="11"/>
       <c r="F119" s="11"/>
       <c r="G119" s="11"/>
-      <c r="H119" s="26" t="s">
+      <c r="H119" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="I119" s="35"/>
+      <c r="I119" s="34"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="14" t="s">
@@ -9932,10 +9922,10 @@
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
       <c r="G120" s="11"/>
-      <c r="H120" s="31" t="s">
+      <c r="H120" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="I120" s="35"/>
+      <c r="I120" s="34"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="14" t="s">
@@ -9952,7 +9942,7 @@
       <c r="H121" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="I121" s="35"/>
+      <c r="I121" s="34"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="14" t="s">
@@ -9966,10 +9956,10 @@
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
       <c r="G122" s="11"/>
-      <c r="H122" s="26" t="s">
+      <c r="H122" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="I122" s="33"/>
+      <c r="I122" s="32"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="14" t="s">
@@ -9983,10 +9973,10 @@
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
       <c r="G123" s="11"/>
-      <c r="H123" s="26" t="s">
+      <c r="H123" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="I123" s="33"/>
+      <c r="I123" s="32"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="14" t="s">
@@ -9998,10 +9988,10 @@
       <c r="E124" s="11"/>
       <c r="F124" s="11"/>
       <c r="G124" s="11"/>
-      <c r="H124" s="34" t="s">
+      <c r="H124" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="I124" s="33"/>
+      <c r="I124" s="32"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="14" t="s">
@@ -10013,10 +10003,10 @@
       <c r="E125" s="11"/>
       <c r="F125" s="11"/>
       <c r="G125" s="11"/>
-      <c r="H125" s="36" t="s">
+      <c r="H125" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="I125" s="33"/>
+      <c r="I125" s="32"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="14" t="s">
@@ -10028,10 +10018,10 @@
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
       <c r="G126" s="11"/>
-      <c r="H126" s="36" t="s">
+      <c r="H126" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="I126" s="33"/>
+      <c r="I126" s="32"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="14" t="s">
@@ -10043,10 +10033,10 @@
       <c r="E127" s="11"/>
       <c r="F127" s="11"/>
       <c r="G127" s="11"/>
-      <c r="H127" s="34" t="s">
+      <c r="H127" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="I127" s="33"/>
+      <c r="I127" s="32"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="14" t="s">
@@ -10058,10 +10048,10 @@
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
       <c r="G128" s="11"/>
-      <c r="H128" s="34" t="s">
+      <c r="H128" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="I128" s="33"/>
+      <c r="I128" s="32"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="14" t="s">
@@ -10073,10 +10063,10 @@
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
       <c r="G129" s="11"/>
-      <c r="H129" s="34" t="s">
+      <c r="H129" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="I129" s="33"/>
+      <c r="I129" s="32"/>
     </row>
     <row r="130" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="14" t="s">
@@ -10091,7 +10081,7 @@
       <c r="H130" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="I130" s="33"/>
+      <c r="I130" s="32"/>
     </row>
     <row r="131" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="14" t="s">
@@ -10103,10 +10093,10 @@
       <c r="E131" s="11"/>
       <c r="F131" s="11"/>
       <c r="G131" s="11"/>
-      <c r="H131" s="34" t="s">
+      <c r="H131" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="I131" s="33"/>
+      <c r="I131" s="32"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="14" t="s">
@@ -10121,7 +10111,7 @@
       <c r="H132" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="I132" s="33"/>
+      <c r="I132" s="32"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="14" t="s">
@@ -10133,10 +10123,10 @@
       <c r="E133" s="11"/>
       <c r="F133" s="11"/>
       <c r="G133" s="11"/>
-      <c r="H133" s="34" t="s">
+      <c r="H133" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="I133" s="33"/>
+      <c r="I133" s="32"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="14" t="s">
@@ -10151,7 +10141,7 @@
       <c r="H134" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="I134" s="33"/>
+      <c r="I134" s="32"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="14" t="s">
@@ -10163,10 +10153,10 @@
       <c r="E135" s="11"/>
       <c r="F135" s="11"/>
       <c r="G135" s="11"/>
-      <c r="H135" s="26" t="s">
+      <c r="H135" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="I135" s="33"/>
+      <c r="I135" s="32"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="14" t="s">
@@ -10178,10 +10168,10 @@
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
       <c r="G136" s="11"/>
-      <c r="H136" s="26" t="s">
+      <c r="H136" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="I136" s="33"/>
+      <c r="I136" s="32"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="14" t="s">
@@ -10193,10 +10183,10 @@
       <c r="E137" s="11"/>
       <c r="F137" s="11"/>
       <c r="G137" s="11"/>
-      <c r="H137" s="26" t="s">
+      <c r="H137" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="I137" s="33"/>
+      <c r="I137" s="32"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="14" t="s">
@@ -10208,10 +10198,10 @@
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
       <c r="G138" s="11"/>
-      <c r="H138" s="26" t="s">
+      <c r="H138" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="I138" s="33"/>
+      <c r="I138" s="32"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="14" t="s">
@@ -10223,10 +10213,10 @@
       <c r="E139" s="11"/>
       <c r="F139" s="11"/>
       <c r="G139" s="11"/>
-      <c r="H139" s="34" t="s">
+      <c r="H139" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="I139" s="33"/>
+      <c r="I139" s="32"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="14" t="s">
@@ -10238,10 +10228,10 @@
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
       <c r="G140" s="11"/>
-      <c r="H140" s="34" t="s">
+      <c r="H140" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="I140" s="33"/>
+      <c r="I140" s="32"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="14" t="s">
@@ -10253,10 +10243,10 @@
       <c r="E141" s="11"/>
       <c r="F141" s="11"/>
       <c r="G141" s="11"/>
-      <c r="H141" s="34" t="s">
+      <c r="H141" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="I141" s="33"/>
+      <c r="I141" s="32"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="14" t="s">
@@ -10268,10 +10258,10 @@
       <c r="E142" s="11"/>
       <c r="F142" s="11"/>
       <c r="G142" s="11"/>
-      <c r="H142" s="34" t="s">
+      <c r="H142" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="I142" s="33"/>
+      <c r="I142" s="32"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="14" t="s">
@@ -10283,10 +10273,10 @@
       <c r="E143" s="11"/>
       <c r="F143" s="11"/>
       <c r="G143" s="11"/>
-      <c r="H143" s="34" t="s">
+      <c r="H143" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="I143" s="33"/>
+      <c r="I143" s="32"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="14" t="s">
@@ -10298,10 +10288,10 @@
       <c r="E144" s="11"/>
       <c r="F144" s="11"/>
       <c r="G144" s="11"/>
-      <c r="H144" s="34" t="s">
+      <c r="H144" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="I144" s="33"/>
+      <c r="I144" s="32"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="14" t="s">
@@ -10313,10 +10303,10 @@
       <c r="E145" s="11"/>
       <c r="F145" s="11"/>
       <c r="G145" s="11"/>
-      <c r="H145" s="34" t="s">
+      <c r="H145" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="I145" s="33"/>
+      <c r="I145" s="32"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="14" t="s">
@@ -10328,7 +10318,7 @@
       <c r="E146" s="11"/>
       <c r="F146" s="11"/>
       <c r="G146" s="11"/>
-      <c r="H146" s="34" t="s">
+      <c r="H146" s="33" t="s">
         <v>91</v>
       </c>
       <c r="I146" s="21"/>
@@ -10343,7 +10333,7 @@
       <c r="E147" s="11"/>
       <c r="F147" s="11"/>
       <c r="G147" s="11"/>
-      <c r="H147" s="34" t="s">
+      <c r="H147" s="33" t="s">
         <v>233</v>
       </c>
       <c r="I147" s="21"/>
@@ -10358,7 +10348,7 @@
       <c r="E148" s="11"/>
       <c r="F148" s="11"/>
       <c r="G148" s="11"/>
-      <c r="H148" s="34" t="s">
+      <c r="H148" s="33" t="s">
         <v>233</v>
       </c>
       <c r="I148" s="21"/>
@@ -10373,7 +10363,7 @@
       <c r="E149" s="11"/>
       <c r="F149" s="11"/>
       <c r="G149" s="11"/>
-      <c r="H149" s="34" t="s">
+      <c r="H149" s="33" t="s">
         <v>233</v>
       </c>
       <c r="I149" s="21"/>
@@ -10388,7 +10378,7 @@
       <c r="E150" s="11"/>
       <c r="F150" s="11"/>
       <c r="G150" s="11"/>
-      <c r="H150" s="34" t="s">
+      <c r="H150" s="33" t="s">
         <v>233</v>
       </c>
       <c r="I150" s="21"/>
@@ -10403,7 +10393,7 @@
       <c r="E151" s="11"/>
       <c r="F151" s="11"/>
       <c r="G151" s="11"/>
-      <c r="H151" s="34" t="s">
+      <c r="H151" s="33" t="s">
         <v>238</v>
       </c>
       <c r="I151" s="21"/>
@@ -10418,7 +10408,7 @@
       <c r="E152" s="11"/>
       <c r="F152" s="11"/>
       <c r="G152" s="11"/>
-      <c r="H152" s="34" t="s">
+      <c r="H152" s="33" t="s">
         <v>240</v>
       </c>
       <c r="I152" s="21"/>
@@ -10433,7 +10423,7 @@
       <c r="E153" s="11"/>
       <c r="F153" s="11"/>
       <c r="G153" s="11"/>
-      <c r="H153" s="34" t="s">
+      <c r="H153" s="33" t="s">
         <v>242</v>
       </c>
       <c r="I153" s="21"/>
@@ -10448,7 +10438,7 @@
       <c r="E154" s="11"/>
       <c r="F154" s="11"/>
       <c r="G154" s="11"/>
-      <c r="H154" s="34" t="s">
+      <c r="H154" s="33" t="s">
         <v>244</v>
       </c>
       <c r="I154" s="21"/>
@@ -10463,7 +10453,7 @@
       <c r="E155" s="11"/>
       <c r="F155" s="11"/>
       <c r="G155" s="11"/>
-      <c r="H155" s="34" t="s">
+      <c r="H155" s="33" t="s">
         <v>246</v>
       </c>
       <c r="I155" s="21"/>
@@ -10478,7 +10468,7 @@
       <c r="E156" s="11"/>
       <c r="F156" s="11"/>
       <c r="G156" s="11"/>
-      <c r="H156" s="34" t="s">
+      <c r="H156" s="33" t="s">
         <v>248</v>
       </c>
       <c r="I156" s="21"/>
@@ -10493,7 +10483,7 @@
       <c r="E157" s="11"/>
       <c r="F157" s="11"/>
       <c r="G157" s="11"/>
-      <c r="H157" s="34" t="s">
+      <c r="H157" s="33" t="s">
         <v>233</v>
       </c>
       <c r="I157" s="21"/>
@@ -10508,7 +10498,7 @@
       <c r="E158" s="11"/>
       <c r="F158" s="11"/>
       <c r="G158" s="11"/>
-      <c r="H158" s="34" t="s">
+      <c r="H158" s="33" t="s">
         <v>251</v>
       </c>
       <c r="I158" s="21"/>
@@ -10523,7 +10513,7 @@
       <c r="E159" s="11"/>
       <c r="F159" s="11"/>
       <c r="G159" s="11"/>
-      <c r="H159" s="34" t="s">
+      <c r="H159" s="33" t="s">
         <v>233</v>
       </c>
       <c r="I159" s="21"/>
@@ -10538,7 +10528,7 @@
       <c r="E160" s="11"/>
       <c r="F160" s="11"/>
       <c r="G160" s="11"/>
-      <c r="H160" s="34" t="s">
+      <c r="H160" s="33" t="s">
         <v>254</v>
       </c>
       <c r="I160" s="21"/>
@@ -10553,7 +10543,7 @@
       <c r="E161" s="11"/>
       <c r="F161" s="11"/>
       <c r="G161" s="11"/>
-      <c r="H161" s="34" t="s">
+      <c r="H161" s="33" t="s">
         <v>256</v>
       </c>
       <c r="I161" s="21"/>
@@ -10568,7 +10558,7 @@
       <c r="E162" s="11"/>
       <c r="F162" s="11"/>
       <c r="G162" s="11"/>
-      <c r="H162" s="34" t="s">
+      <c r="H162" s="33" t="s">
         <v>256</v>
       </c>
       <c r="I162" s="21"/>
@@ -10583,7 +10573,7 @@
       <c r="E163" s="11"/>
       <c r="F163" s="11"/>
       <c r="G163" s="11"/>
-      <c r="H163" s="34" t="s">
+      <c r="H163" s="33" t="s">
         <v>259</v>
       </c>
       <c r="I163" s="21"/>
@@ -10598,7 +10588,7 @@
       <c r="E164" s="11"/>
       <c r="F164" s="11"/>
       <c r="G164" s="11"/>
-      <c r="H164" s="34" t="s">
+      <c r="H164" s="33" t="s">
         <v>233</v>
       </c>
       <c r="I164" s="21"/>
@@ -10613,7 +10603,7 @@
       <c r="E165" s="11"/>
       <c r="F165" s="11"/>
       <c r="G165" s="11"/>
-      <c r="H165" s="34" t="s">
+      <c r="H165" s="33" t="s">
         <v>262</v>
       </c>
       <c r="I165" s="21"/>
@@ -10628,7 +10618,7 @@
       <c r="E166" s="11"/>
       <c r="F166" s="11"/>
       <c r="G166" s="11"/>
-      <c r="H166" s="34" t="s">
+      <c r="H166" s="33" t="s">
         <v>262</v>
       </c>
       <c r="I166" s="21"/>
@@ -10643,7 +10633,7 @@
       <c r="E167" s="11"/>
       <c r="F167" s="11"/>
       <c r="G167" s="11"/>
-      <c r="H167" s="34" t="s">
+      <c r="H167" s="33" t="s">
         <v>233</v>
       </c>
       <c r="I167" s="21"/>
@@ -10658,7 +10648,7 @@
       <c r="E168" s="11"/>
       <c r="F168" s="11"/>
       <c r="G168" s="11"/>
-      <c r="H168" s="34" t="s">
+      <c r="H168" s="33" t="s">
         <v>262</v>
       </c>
       <c r="I168" s="21"/>
@@ -10673,7 +10663,7 @@
       <c r="E169" s="11"/>
       <c r="F169" s="11"/>
       <c r="G169" s="11"/>
-      <c r="H169" s="34" t="s">
+      <c r="H169" s="33" t="s">
         <v>265</v>
       </c>
       <c r="I169" s="21"/>
@@ -10688,7 +10678,7 @@
       <c r="E170" s="11"/>
       <c r="F170" s="11"/>
       <c r="G170" s="11"/>
-      <c r="H170" s="34" t="s">
+      <c r="H170" s="33" t="s">
         <v>267</v>
       </c>
       <c r="I170" s="21"/>
@@ -10703,7 +10693,7 @@
       <c r="E171" s="11"/>
       <c r="F171" s="11"/>
       <c r="G171" s="11"/>
-      <c r="H171" s="34" t="s">
+      <c r="H171" s="33" t="s">
         <v>269</v>
       </c>
       <c r="I171" s="21"/>
@@ -10718,7 +10708,7 @@
       <c r="E172" s="11"/>
       <c r="F172" s="11"/>
       <c r="G172" s="11"/>
-      <c r="H172" s="34" t="s">
+      <c r="H172" s="33" t="s">
         <v>271</v>
       </c>
       <c r="I172" s="21"/>
@@ -10733,7 +10723,7 @@
       <c r="E173" s="11"/>
       <c r="F173" s="11"/>
       <c r="G173" s="11"/>
-      <c r="H173" s="34" t="s">
+      <c r="H173" s="33" t="s">
         <v>271</v>
       </c>
       <c r="I173" s="21"/>
@@ -10748,7 +10738,7 @@
       <c r="E174" s="11"/>
       <c r="F174" s="11"/>
       <c r="G174" s="11"/>
-      <c r="H174" s="34" t="s">
+      <c r="H174" s="33" t="s">
         <v>274</v>
       </c>
       <c r="I174" s="21"/>
@@ -10763,7 +10753,7 @@
       <c r="E175" s="11"/>
       <c r="F175" s="11"/>
       <c r="G175" s="11"/>
-      <c r="H175" s="34" t="s">
+      <c r="H175" s="33" t="s">
         <v>276</v>
       </c>
       <c r="I175" s="13"/>
@@ -10777,8 +10767,8 @@
       <c r="D176" s="11"/>
       <c r="E176" s="11"/>
       <c r="F176" s="11"/>
-      <c r="G176" s="11"/>
-      <c r="H176" s="34" t="s">
+      <c r="G176" s="12"/>
+      <c r="H176" s="33" t="s">
         <v>278</v>
       </c>
       <c r="I176" s="13"/>
@@ -10793,7 +10783,7 @@
       <c r="E177" s="11"/>
       <c r="F177" s="11"/>
       <c r="G177" s="11"/>
-      <c r="H177" s="34" t="s">
+      <c r="H177" s="33" t="s">
         <v>280</v>
       </c>
       <c r="I177" s="13"/>
@@ -10808,7 +10798,7 @@
       <c r="E178" s="11"/>
       <c r="F178" s="11"/>
       <c r="G178" s="11"/>
-      <c r="H178" s="34" t="s">
+      <c r="H178" s="33" t="s">
         <v>282</v>
       </c>
       <c r="I178" s="13"/>
@@ -10823,7 +10813,7 @@
       <c r="E179" s="11"/>
       <c r="F179" s="11"/>
       <c r="G179" s="11"/>
-      <c r="H179" s="34" t="s">
+      <c r="H179" s="33" t="s">
         <v>79</v>
       </c>
       <c r="I179" s="13"/>
@@ -10898,7 +10888,7 @@
       <c r="E184" s="11"/>
       <c r="F184" s="11"/>
       <c r="G184" s="11"/>
-      <c r="H184" s="34" t="s">
+      <c r="H184" s="33" t="s">
         <v>290</v>
       </c>
       <c r="I184" s="13"/>
@@ -10913,7 +10903,7 @@
       <c r="E185" s="11"/>
       <c r="F185" s="11"/>
       <c r="G185" s="11"/>
-      <c r="H185" s="37" t="s">
+      <c r="H185" s="36" t="s">
         <v>292</v>
       </c>
       <c r="I185" s="21"/>
@@ -10928,7 +10918,7 @@
       <c r="E186" s="11"/>
       <c r="F186" s="11"/>
       <c r="G186" s="11"/>
-      <c r="H186" s="37" t="s">
+      <c r="H186" s="36" t="s">
         <v>294</v>
       </c>
       <c r="I186" s="21"/>
@@ -10937,7 +10927,7 @@
       <c r="A187" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="B187" s="29"/>
+      <c r="B187" s="27"/>
       <c r="C187" s="11"/>
       <c r="D187" s="11"/>
       <c r="E187" s="11"/>
@@ -10952,7 +10942,7 @@
       <c r="A188" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="B188" s="29"/>
+      <c r="B188" s="27"/>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
       <c r="E188" s="11"/>
@@ -10973,7 +10963,7 @@
       <c r="E189" s="11"/>
       <c r="F189" s="11"/>
       <c r="G189" s="11"/>
-      <c r="H189" s="38" t="s">
+      <c r="H189" s="37" t="s">
         <v>299</v>
       </c>
       <c r="I189" s="21"/>
@@ -10988,7 +10978,7 @@
       <c r="E190" s="11"/>
       <c r="F190" s="11"/>
       <c r="G190" s="11"/>
-      <c r="H190" s="37" t="s">
+      <c r="H190" s="36" t="s">
         <v>301</v>
       </c>
       <c r="I190" s="21"/>
@@ -11003,7 +10993,7 @@
       <c r="E191" s="11"/>
       <c r="F191" s="11"/>
       <c r="G191" s="11"/>
-      <c r="H191" s="39" t="s">
+      <c r="H191" s="38" t="s">
         <v>9</v>
       </c>
       <c r="I191" s="21"/>
@@ -11018,7 +11008,7 @@
       <c r="E192" s="11"/>
       <c r="F192" s="11"/>
       <c r="G192" s="11"/>
-      <c r="H192" s="37" t="s">
+      <c r="H192" s="36" t="s">
         <v>301</v>
       </c>
       <c r="I192" s="21"/>
@@ -11038,7 +11028,7 @@
       </c>
       <c r="I193" s="21"/>
     </row>
-    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="15" t="s">
         <v>306</v>
       </c>
@@ -11178,7 +11168,7 @@
       <c r="E202" s="11"/>
       <c r="F202" s="11"/>
       <c r="G202" s="11"/>
-      <c r="H202" s="26" t="s">
+      <c r="H202" s="24" t="s">
         <v>189</v>
       </c>
       <c r="I202" s="13"/>
@@ -11240,13 +11230,13 @@
       <c r="E206" s="11"/>
       <c r="F206" s="11"/>
       <c r="G206" s="11"/>
-      <c r="H206" s="40" t="s">
+      <c r="H206" s="39" t="s">
         <v>325</v>
       </c>
       <c r="I206" s="13"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="41" t="s">
+      <c r="A207" s="40" t="s">
         <v>326</v>
       </c>
       <c r="B207" s="10"/>
@@ -11255,7 +11245,7 @@
       <c r="E207" s="11"/>
       <c r="F207" s="11"/>
       <c r="G207" s="11"/>
-      <c r="H207" s="41" t="s">
+      <c r="H207" s="40" t="s">
         <v>327</v>
       </c>
       <c r="I207" s="13"/>
@@ -11294,7 +11284,7 @@
       <c r="A210" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="B210" s="42"/>
+      <c r="B210" s="41"/>
       <c r="C210" s="11"/>
       <c r="D210" s="11"/>
       <c r="E210" s="11"/>
@@ -12042,7 +12032,7 @@
       <c r="E258" s="11"/>
       <c r="F258" s="11"/>
       <c r="G258" s="11"/>
-      <c r="H258" s="34" t="s">
+      <c r="H258" s="33" t="s">
         <v>421</v>
       </c>
       <c r="I258" s="13"/>
@@ -12184,7 +12174,7 @@
       <c r="A268" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="B268" s="43"/>
+      <c r="B268" s="42"/>
       <c r="C268" s="11"/>
       <c r="D268" s="11"/>
       <c r="E268" s="11"/>
@@ -12205,7 +12195,7 @@
       <c r="E269" s="11"/>
       <c r="F269" s="11"/>
       <c r="G269" s="11"/>
-      <c r="H269" s="34" t="s">
+      <c r="H269" s="33" t="s">
         <v>440</v>
       </c>
       <c r="I269" s="13"/>
@@ -12214,7 +12204,7 @@
       <c r="A270" s="15" t="s">
         <v>441</v>
       </c>
-      <c r="B270" s="44"/>
+      <c r="B270" s="43"/>
       <c r="C270" s="11"/>
       <c r="D270" s="11"/>
       <c r="E270" s="11"/>
@@ -12235,7 +12225,7 @@
       <c r="E271" s="11"/>
       <c r="F271" s="11"/>
       <c r="G271" s="11"/>
-      <c r="H271" s="45" t="s">
+      <c r="H271" s="44" t="s">
         <v>444</v>
       </c>
       <c r="I271" s="13"/>
@@ -12265,7 +12255,7 @@
       <c r="E273" s="11"/>
       <c r="F273" s="11"/>
       <c r="G273" s="11"/>
-      <c r="H273" s="28" t="s">
+      <c r="H273" s="26" t="s">
         <v>448</v>
       </c>
       <c r="I273" s="13"/>
@@ -12439,13 +12429,13 @@
       <c r="A285" s="15" t="s">
         <v>471</v>
       </c>
-      <c r="B285" s="43"/>
+      <c r="B285" s="42"/>
       <c r="C285" s="11"/>
       <c r="D285" s="11"/>
       <c r="E285" s="11"/>
       <c r="F285" s="11"/>
       <c r="G285" s="11"/>
-      <c r="H285" s="26" t="s">
+      <c r="H285" s="24" t="s">
         <v>472</v>
       </c>
       <c r="I285" s="13"/>
@@ -12460,7 +12450,7 @@
       <c r="E286" s="11"/>
       <c r="F286" s="11"/>
       <c r="G286" s="11"/>
-      <c r="H286" s="34" t="s">
+      <c r="H286" s="33" t="s">
         <v>474</v>
       </c>
       <c r="I286" s="13"/>
@@ -12475,7 +12465,7 @@
       <c r="E287" s="11"/>
       <c r="F287" s="11"/>
       <c r="G287" s="11"/>
-      <c r="H287" s="34" t="s">
+      <c r="H287" s="33" t="s">
         <v>476</v>
       </c>
       <c r="I287" s="13"/>
@@ -12505,7 +12495,7 @@
       <c r="E289" s="11"/>
       <c r="F289" s="11"/>
       <c r="G289" s="11"/>
-      <c r="H289" s="26" t="s">
+      <c r="H289" s="24" t="s">
         <v>189</v>
       </c>
       <c r="I289" s="13"/>
@@ -12535,7 +12525,7 @@
       <c r="E291" s="11"/>
       <c r="F291" s="11"/>
       <c r="G291" s="11"/>
-      <c r="H291" s="34" t="s">
+      <c r="H291" s="33" t="s">
         <v>482</v>
       </c>
       <c r="I291" s="13"/>
@@ -12565,7 +12555,7 @@
       <c r="E293" s="11"/>
       <c r="F293" s="11"/>
       <c r="G293" s="11"/>
-      <c r="H293" s="46" t="s">
+      <c r="H293" s="45" t="s">
         <v>486</v>
       </c>
       <c r="I293" s="13"/>
@@ -12580,7 +12570,7 @@
       <c r="E294" s="11"/>
       <c r="F294" s="11"/>
       <c r="G294" s="11"/>
-      <c r="H294" s="46" t="s">
+      <c r="H294" s="45" t="s">
         <v>488</v>
       </c>
       <c r="I294" s="13"/>
@@ -12595,7 +12585,7 @@
       <c r="E295" s="11"/>
       <c r="F295" s="11"/>
       <c r="G295" s="11"/>
-      <c r="H295" s="46" t="s">
+      <c r="H295" s="45" t="s">
         <v>488</v>
       </c>
       <c r="I295" s="13"/>
@@ -12610,7 +12600,7 @@
       <c r="E296" s="11"/>
       <c r="F296" s="11"/>
       <c r="G296" s="11"/>
-      <c r="H296" s="46" t="s">
+      <c r="H296" s="45" t="s">
         <v>491</v>
       </c>
       <c r="I296" s="13"/>
@@ -12625,7 +12615,7 @@
       <c r="E297" s="11"/>
       <c r="F297" s="11"/>
       <c r="G297" s="11"/>
-      <c r="H297" s="46" t="s">
+      <c r="H297" s="45" t="s">
         <v>491</v>
       </c>
       <c r="I297" s="13"/>
@@ -12640,7 +12630,7 @@
       <c r="E298" s="11"/>
       <c r="F298" s="11"/>
       <c r="G298" s="11"/>
-      <c r="H298" s="28" t="s">
+      <c r="H298" s="26" t="s">
         <v>494</v>
       </c>
       <c r="I298" s="13"/>
@@ -12655,7 +12645,7 @@
       <c r="E299" s="11"/>
       <c r="F299" s="11"/>
       <c r="G299" s="11"/>
-      <c r="H299" s="28" t="s">
+      <c r="H299" s="26" t="s">
         <v>496</v>
       </c>
       <c r="I299" s="13"/>
@@ -12670,7 +12660,7 @@
       <c r="E300" s="11"/>
       <c r="F300" s="11"/>
       <c r="G300" s="11"/>
-      <c r="H300" s="47" t="s">
+      <c r="H300" s="46" t="s">
         <v>498</v>
       </c>
       <c r="I300" s="13"/>
@@ -12685,7 +12675,7 @@
       <c r="E301" s="11"/>
       <c r="F301" s="11"/>
       <c r="G301" s="11"/>
-      <c r="H301" s="28" t="s">
+      <c r="H301" s="26" t="s">
         <v>500</v>
       </c>
       <c r="I301" s="13"/>
@@ -12700,7 +12690,7 @@
       <c r="E302" s="11"/>
       <c r="F302" s="11"/>
       <c r="G302" s="11"/>
-      <c r="H302" s="28" t="s">
+      <c r="H302" s="26" t="s">
         <v>500</v>
       </c>
       <c r="I302" s="13"/>
@@ -12715,7 +12705,7 @@
       <c r="E303" s="11"/>
       <c r="F303" s="11"/>
       <c r="G303" s="11"/>
-      <c r="H303" s="34" t="s">
+      <c r="H303" s="33" t="s">
         <v>503</v>
       </c>
       <c r="I303" s="13"/>
@@ -12775,7 +12765,7 @@
       <c r="E307" s="11"/>
       <c r="F307" s="11"/>
       <c r="G307" s="11"/>
-      <c r="H307" s="31" t="s">
+      <c r="H307" s="29" t="s">
         <v>161</v>
       </c>
       <c r="I307" s="13"/>
@@ -12796,16 +12786,16 @@
       <c r="I308" s="13"/>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="48" t="s">
+      <c r="A309" s="47" t="s">
         <v>511</v>
       </c>
-      <c r="B309" s="49"/>
+      <c r="B309" s="48"/>
       <c r="C309" s="11"/>
       <c r="D309" s="11"/>
       <c r="E309" s="11"/>
       <c r="F309" s="11"/>
       <c r="G309" s="11"/>
-      <c r="H309" s="46" t="s">
+      <c r="H309" s="45" t="s">
         <v>512</v>
       </c>
       <c r="I309" s="13"/>
@@ -12850,7 +12840,7 @@
       <c r="E312" s="11"/>
       <c r="F312" s="11"/>
       <c r="G312" s="11"/>
-      <c r="H312" s="26" t="s">
+      <c r="H312" s="24" t="s">
         <v>517</v>
       </c>
       <c r="I312" s="13"/>
@@ -13163,7 +13153,7 @@
       <c r="A333" s="14" t="s">
         <v>552</v>
       </c>
-      <c r="B333" s="42"/>
+      <c r="B333" s="41"/>
       <c r="C333" s="11"/>
       <c r="D333" s="11"/>
       <c r="E333" s="11"/>
@@ -13523,7 +13513,7 @@
       <c r="A357" s="14" t="s">
         <v>587</v>
       </c>
-      <c r="B357" s="29"/>
+      <c r="B357" s="27"/>
       <c r="C357" s="11"/>
       <c r="D357" s="11"/>
       <c r="E357" s="11"/>
@@ -13591,7 +13581,7 @@
       <c r="E361" s="11"/>
       <c r="F361" s="11"/>
       <c r="G361" s="11"/>
-      <c r="H361" s="50" t="s">
+      <c r="H361" s="49" t="s">
         <v>594</v>
       </c>
       <c r="I361" s="13"/>
@@ -13600,13 +13590,13 @@
       <c r="A362" s="14" t="s">
         <v>595</v>
       </c>
-      <c r="B362" s="51"/>
+      <c r="B362" s="50"/>
       <c r="C362" s="11"/>
       <c r="D362" s="11"/>
       <c r="E362" s="11"/>
       <c r="F362" s="11"/>
       <c r="G362" s="11"/>
-      <c r="H362" s="26" t="s">
+      <c r="H362" s="24" t="s">
         <v>596</v>
       </c>
       <c r="I362" s="21"/>
@@ -13615,13 +13605,13 @@
       <c r="A363" s="14" t="s">
         <v>597</v>
       </c>
-      <c r="B363" s="51"/>
+      <c r="B363" s="50"/>
       <c r="C363" s="11"/>
       <c r="D363" s="11"/>
       <c r="E363" s="11"/>
       <c r="F363" s="11"/>
       <c r="G363" s="11"/>
-      <c r="H363" s="26" t="s">
+      <c r="H363" s="24" t="s">
         <v>596</v>
       </c>
       <c r="I363" s="21"/>
@@ -13630,13 +13620,13 @@
       <c r="A364" s="14" t="s">
         <v>598</v>
       </c>
-      <c r="B364" s="51"/>
+      <c r="B364" s="50"/>
       <c r="C364" s="11"/>
       <c r="D364" s="11"/>
       <c r="E364" s="11"/>
       <c r="F364" s="11"/>
       <c r="G364" s="11"/>
-      <c r="H364" s="26" t="s">
+      <c r="H364" s="24" t="s">
         <v>596</v>
       </c>
       <c r="I364" s="21"/>
@@ -13645,13 +13635,13 @@
       <c r="A365" s="14" t="s">
         <v>599</v>
       </c>
-      <c r="B365" s="51"/>
+      <c r="B365" s="50"/>
       <c r="C365" s="11"/>
       <c r="D365" s="11"/>
       <c r="E365" s="11"/>
       <c r="F365" s="11"/>
       <c r="G365" s="11"/>
-      <c r="H365" s="26" t="s">
+      <c r="H365" s="24" t="s">
         <v>596</v>
       </c>
       <c r="I365" s="21"/>
@@ -13660,7 +13650,7 @@
       <c r="A366" s="14" t="s">
         <v>600</v>
       </c>
-      <c r="B366" s="51"/>
+      <c r="B366" s="50"/>
       <c r="C366" s="11"/>
       <c r="D366" s="11"/>
       <c r="E366" s="11"/>
@@ -13675,7 +13665,7 @@
       <c r="A367" s="14" t="s">
         <v>602</v>
       </c>
-      <c r="B367" s="51"/>
+      <c r="B367" s="50"/>
       <c r="C367" s="11"/>
       <c r="D367" s="11"/>
       <c r="E367" s="11"/>
@@ -13690,7 +13680,7 @@
       <c r="A368" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="B368" s="51"/>
+      <c r="B368" s="50"/>
       <c r="C368" s="11"/>
       <c r="D368" s="11"/>
       <c r="E368" s="11"/>
@@ -13713,7 +13703,7 @@
       <c r="E369" s="11"/>
       <c r="F369" s="11"/>
       <c r="G369" s="11"/>
-      <c r="H369" s="26" t="s">
+      <c r="H369" s="24" t="s">
         <v>596</v>
       </c>
       <c r="I369" s="21"/>
@@ -13722,13 +13712,13 @@
       <c r="A370" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="B370" s="51"/>
+      <c r="B370" s="50"/>
       <c r="C370" s="11"/>
       <c r="D370" s="11"/>
       <c r="E370" s="11"/>
       <c r="F370" s="11"/>
       <c r="G370" s="11"/>
-      <c r="H370" s="26" t="s">
+      <c r="H370" s="24" t="s">
         <v>596</v>
       </c>
       <c r="I370" s="21"/>
@@ -13737,13 +13727,13 @@
       <c r="A371" s="14" t="s">
         <v>607</v>
       </c>
-      <c r="B371" s="51"/>
+      <c r="B371" s="50"/>
       <c r="C371" s="11"/>
       <c r="D371" s="11"/>
       <c r="E371" s="11"/>
       <c r="F371" s="11"/>
       <c r="G371" s="11"/>
-      <c r="H371" s="26" t="s">
+      <c r="H371" s="24" t="s">
         <v>596</v>
       </c>
       <c r="I371" s="21"/>
@@ -13752,13 +13742,13 @@
       <c r="A372" s="14" t="s">
         <v>608</v>
       </c>
-      <c r="B372" s="51"/>
+      <c r="B372" s="50"/>
       <c r="C372" s="11"/>
       <c r="D372" s="11"/>
       <c r="E372" s="11"/>
       <c r="F372" s="11"/>
       <c r="G372" s="11"/>
-      <c r="H372" s="26" t="s">
+      <c r="H372" s="24" t="s">
         <v>596</v>
       </c>
       <c r="I372" s="21"/>
@@ -13767,7 +13757,7 @@
       <c r="A373" s="14" t="s">
         <v>609</v>
       </c>
-      <c r="B373" s="51"/>
+      <c r="B373" s="50"/>
       <c r="C373" s="11"/>
       <c r="D373" s="11"/>
       <c r="E373" s="11"/>
@@ -13782,7 +13772,7 @@
       <c r="A374" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="B374" s="51"/>
+      <c r="B374" s="50"/>
       <c r="C374" s="11"/>
       <c r="D374" s="11"/>
       <c r="E374" s="11"/>
@@ -13797,7 +13787,7 @@
       <c r="A375" s="14" t="s">
         <v>611</v>
       </c>
-      <c r="B375" s="51"/>
+      <c r="B375" s="50"/>
       <c r="C375" s="11"/>
       <c r="D375" s="11"/>
       <c r="E375" s="11"/>
@@ -13806,13 +13796,13 @@
       <c r="H375" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I375" s="52"/>
+      <c r="I375" s="51"/>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="14" t="s">
         <v>612</v>
       </c>
-      <c r="B376" s="51"/>
+      <c r="B376" s="50"/>
       <c r="C376" s="11"/>
       <c r="D376" s="11"/>
       <c r="E376" s="11"/>
@@ -13821,13 +13811,13 @@
       <c r="H376" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I376" s="52"/>
+      <c r="I376" s="51"/>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="14" t="s">
         <v>613</v>
       </c>
-      <c r="B377" s="51"/>
+      <c r="B377" s="50"/>
       <c r="C377" s="11"/>
       <c r="D377" s="11"/>
       <c r="E377" s="11"/>
@@ -13836,13 +13826,13 @@
       <c r="H377" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I377" s="52"/>
+      <c r="I377" s="51"/>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="14" t="s">
         <v>614</v>
       </c>
-      <c r="B378" s="51"/>
+      <c r="B378" s="50"/>
       <c r="C378" s="11"/>
       <c r="D378" s="11"/>
       <c r="E378" s="11"/>
@@ -13857,7 +13847,7 @@
       <c r="A379" s="14" t="s">
         <v>615</v>
       </c>
-      <c r="B379" s="51"/>
+      <c r="B379" s="50"/>
       <c r="C379" s="11"/>
       <c r="D379" s="11"/>
       <c r="E379" s="11"/>
@@ -13866,13 +13856,13 @@
       <c r="H379" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I379" s="53"/>
+      <c r="I379" s="52"/>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="14" t="s">
         <v>616</v>
       </c>
-      <c r="B380" s="51"/>
+      <c r="B380" s="50"/>
       <c r="C380" s="11"/>
       <c r="D380" s="11"/>
       <c r="E380" s="11"/>
@@ -13881,13 +13871,13 @@
       <c r="H380" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I380" s="53"/>
+      <c r="I380" s="52"/>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="14" t="s">
         <v>617</v>
       </c>
-      <c r="B381" s="51"/>
+      <c r="B381" s="50"/>
       <c r="C381" s="11"/>
       <c r="D381" s="11"/>
       <c r="E381" s="11"/>
@@ -13896,13 +13886,13 @@
       <c r="H381" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I381" s="53"/>
+      <c r="I381" s="52"/>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="B382" s="51"/>
+      <c r="B382" s="50"/>
       <c r="C382" s="11"/>
       <c r="D382" s="11"/>
       <c r="E382" s="11"/>
@@ -13911,13 +13901,13 @@
       <c r="H382" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I382" s="53"/>
+      <c r="I382" s="52"/>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="B383" s="51"/>
+      <c r="B383" s="50"/>
       <c r="C383" s="11"/>
       <c r="D383" s="11"/>
       <c r="E383" s="11"/>
@@ -13926,13 +13916,13 @@
       <c r="H383" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I383" s="52"/>
+      <c r="I383" s="51"/>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="14" t="s">
         <v>620</v>
       </c>
-      <c r="B384" s="51"/>
+      <c r="B384" s="50"/>
       <c r="C384" s="11"/>
       <c r="D384" s="11"/>
       <c r="E384" s="11"/>
@@ -13941,13 +13931,13 @@
       <c r="H384" s="15" t="s">
         <v>621</v>
       </c>
-      <c r="I384" s="52"/>
+      <c r="I384" s="51"/>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="14" t="s">
         <v>622</v>
       </c>
-      <c r="B385" s="51"/>
+      <c r="B385" s="50"/>
       <c r="C385" s="11"/>
       <c r="D385" s="11"/>
       <c r="E385" s="11"/>
@@ -13956,13 +13946,13 @@
       <c r="H385" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I385" s="52"/>
+      <c r="I385" s="51"/>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="14" t="s">
         <v>623</v>
       </c>
-      <c r="B386" s="51"/>
+      <c r="B386" s="50"/>
       <c r="C386" s="11"/>
       <c r="D386" s="11"/>
       <c r="E386" s="11"/>
@@ -13971,13 +13961,13 @@
       <c r="H386" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I386" s="52"/>
+      <c r="I386" s="51"/>
     </row>
     <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="14" t="s">
         <v>624</v>
       </c>
-      <c r="B387" s="51"/>
+      <c r="B387" s="50"/>
       <c r="C387" s="11"/>
       <c r="D387" s="11"/>
       <c r="E387" s="11"/>
@@ -13992,7 +13982,7 @@
       <c r="A388" s="14" t="s">
         <v>625</v>
       </c>
-      <c r="B388" s="51"/>
+      <c r="B388" s="50"/>
       <c r="C388" s="11"/>
       <c r="D388" s="11"/>
       <c r="E388" s="11"/>
@@ -14001,13 +13991,13 @@
       <c r="H388" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I388" s="52"/>
+      <c r="I388" s="51"/>
     </row>
     <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="B389" s="51"/>
+      <c r="B389" s="50"/>
       <c r="C389" s="11"/>
       <c r="D389" s="11"/>
       <c r="E389" s="11"/>
@@ -14016,13 +14006,13 @@
       <c r="H389" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I389" s="52"/>
+      <c r="I389" s="51"/>
     </row>
     <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="14" t="s">
         <v>627</v>
       </c>
-      <c r="B390" s="51"/>
+      <c r="B390" s="50"/>
       <c r="C390" s="11"/>
       <c r="D390" s="11"/>
       <c r="E390" s="11"/>
@@ -14037,7 +14027,7 @@
       <c r="A391" s="14" t="s">
         <v>629</v>
       </c>
-      <c r="B391" s="54"/>
+      <c r="B391" s="53"/>
       <c r="C391" s="11"/>
       <c r="D391" s="11"/>
       <c r="E391" s="11"/>
@@ -14046,13 +14036,13 @@
       <c r="H391" s="15" t="s">
         <v>630</v>
       </c>
-      <c r="I391" s="52"/>
+      <c r="I391" s="51"/>
     </row>
     <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="14" t="s">
         <v>631</v>
       </c>
-      <c r="B392" s="51"/>
+      <c r="B392" s="50"/>
       <c r="C392" s="11"/>
       <c r="D392" s="11"/>
       <c r="E392" s="11"/>
@@ -14061,13 +14051,13 @@
       <c r="H392" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I392" s="52"/>
+      <c r="I392" s="51"/>
     </row>
     <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="14" t="s">
         <v>632</v>
       </c>
-      <c r="B393" s="51"/>
+      <c r="B393" s="50"/>
       <c r="C393" s="11"/>
       <c r="D393" s="11"/>
       <c r="E393" s="11"/>
@@ -14076,13 +14066,13 @@
       <c r="H393" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I393" s="52"/>
+      <c r="I393" s="51"/>
     </row>
     <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="14" t="s">
         <v>633</v>
       </c>
-      <c r="B394" s="51"/>
+      <c r="B394" s="50"/>
       <c r="C394" s="11"/>
       <c r="D394" s="11"/>
       <c r="E394" s="11"/>
@@ -14091,13 +14081,13 @@
       <c r="H394" s="15" t="s">
         <v>634</v>
       </c>
-      <c r="I394" s="52"/>
+      <c r="I394" s="51"/>
     </row>
     <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="14" t="s">
         <v>635</v>
       </c>
-      <c r="B395" s="51"/>
+      <c r="B395" s="50"/>
       <c r="C395" s="11"/>
       <c r="D395" s="11"/>
       <c r="E395" s="11"/>
@@ -14106,13 +14096,13 @@
       <c r="H395" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I395" s="52"/>
+      <c r="I395" s="51"/>
     </row>
     <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="14" t="s">
         <v>636</v>
       </c>
-      <c r="B396" s="51"/>
+      <c r="B396" s="50"/>
       <c r="C396" s="11"/>
       <c r="D396" s="11"/>
       <c r="E396" s="11"/>
@@ -14138,7 +14128,7 @@
       <c r="H397" s="15" t="s">
         <v>638</v>
       </c>
-      <c r="I397" s="52"/>
+      <c r="I397" s="51"/>
     </row>
     <row r="398" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="15" t="s">
@@ -14161,7 +14151,7 @@
       <c r="A399" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="B399" s="51"/>
+      <c r="B399" s="50"/>
       <c r="C399" s="11"/>
       <c r="D399" s="11"/>
       <c r="E399" s="11"/>
@@ -14170,13 +14160,13 @@
       <c r="H399" s="15" t="s">
         <v>641</v>
       </c>
-      <c r="I399" s="52"/>
+      <c r="I399" s="51"/>
     </row>
     <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="15" t="s">
         <v>642</v>
       </c>
-      <c r="B400" s="51"/>
+      <c r="B400" s="50"/>
       <c r="C400" s="11"/>
       <c r="D400" s="11"/>
       <c r="E400" s="11"/>
@@ -14185,13 +14175,13 @@
       <c r="H400" s="15" t="s">
         <v>641</v>
       </c>
-      <c r="I400" s="52"/>
+      <c r="I400" s="51"/>
     </row>
     <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="15" t="s">
         <v>643</v>
       </c>
-      <c r="B401" s="51"/>
+      <c r="B401" s="50"/>
       <c r="C401" s="11"/>
       <c r="D401" s="11"/>
       <c r="E401" s="11"/>
@@ -14206,7 +14196,7 @@
       <c r="A402" s="14" t="s">
         <v>644</v>
       </c>
-      <c r="B402" s="51"/>
+      <c r="B402" s="50"/>
       <c r="C402" s="11"/>
       <c r="D402" s="11"/>
       <c r="E402" s="11"/>
@@ -14221,7 +14211,7 @@
       <c r="A403" s="15" t="s">
         <v>646</v>
       </c>
-      <c r="B403" s="51"/>
+      <c r="B403" s="50"/>
       <c r="C403" s="11"/>
       <c r="D403" s="11"/>
       <c r="E403" s="11"/>
@@ -14230,13 +14220,13 @@
       <c r="H403" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I403" s="52"/>
+      <c r="I403" s="51"/>
     </row>
     <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="14" t="s">
         <v>647</v>
       </c>
-      <c r="B404" s="51"/>
+      <c r="B404" s="50"/>
       <c r="C404" s="11"/>
       <c r="D404" s="11"/>
       <c r="E404" s="11"/>
@@ -14251,13 +14241,13 @@
       <c r="A405" s="14" t="s">
         <v>649</v>
       </c>
-      <c r="B405" s="51"/>
+      <c r="B405" s="50"/>
       <c r="C405" s="11"/>
       <c r="D405" s="11"/>
       <c r="E405" s="11"/>
       <c r="F405" s="11"/>
       <c r="G405" s="11"/>
-      <c r="H405" s="26" t="s">
+      <c r="H405" s="24" t="s">
         <v>596</v>
       </c>
       <c r="I405" s="21"/>
@@ -14283,7 +14273,7 @@
       <c r="A407" s="14" t="s">
         <v>651</v>
       </c>
-      <c r="B407" s="51"/>
+      <c r="B407" s="50"/>
       <c r="C407" s="11"/>
       <c r="D407" s="11"/>
       <c r="E407" s="11"/>
@@ -14292,13 +14282,13 @@
       <c r="H407" s="15" t="s">
         <v>652</v>
       </c>
-      <c r="I407" s="53"/>
+      <c r="I407" s="52"/>
     </row>
     <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="14" t="s">
         <v>653</v>
       </c>
-      <c r="B408" s="51"/>
+      <c r="B408" s="50"/>
       <c r="C408" s="11"/>
       <c r="D408" s="11"/>
       <c r="E408" s="11"/>
@@ -14307,13 +14297,13 @@
       <c r="H408" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I408" s="53"/>
+      <c r="I408" s="52"/>
     </row>
     <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="14" t="s">
         <v>654</v>
       </c>
-      <c r="B409" s="51"/>
+      <c r="B409" s="50"/>
       <c r="C409" s="11"/>
       <c r="D409" s="11"/>
       <c r="E409" s="11"/>
@@ -14322,13 +14312,13 @@
       <c r="H409" s="15" t="s">
         <v>621</v>
       </c>
-      <c r="I409" s="53"/>
+      <c r="I409" s="52"/>
     </row>
     <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="14" t="s">
         <v>655</v>
       </c>
-      <c r="B410" s="51"/>
+      <c r="B410" s="50"/>
       <c r="C410" s="11"/>
       <c r="D410" s="11"/>
       <c r="E410" s="11"/>
@@ -14337,13 +14327,13 @@
       <c r="H410" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I410" s="53"/>
+      <c r="I410" s="52"/>
     </row>
     <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="B411" s="51"/>
+      <c r="B411" s="50"/>
       <c r="C411" s="11"/>
       <c r="D411" s="11"/>
       <c r="E411" s="11"/>
@@ -14352,13 +14342,13 @@
       <c r="H411" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I411" s="52"/>
+      <c r="I411" s="51"/>
     </row>
     <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="14" t="s">
         <v>657</v>
       </c>
-      <c r="B412" s="51"/>
+      <c r="B412" s="50"/>
       <c r="C412" s="11"/>
       <c r="D412" s="11"/>
       <c r="E412" s="11"/>
@@ -14367,13 +14357,13 @@
       <c r="H412" s="15" t="s">
         <v>658</v>
       </c>
-      <c r="I412" s="55"/>
+      <c r="I412" s="54"/>
     </row>
     <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="15" t="s">
         <v>659</v>
       </c>
-      <c r="B413" s="51"/>
+      <c r="B413" s="50"/>
       <c r="C413" s="11"/>
       <c r="D413" s="11"/>
       <c r="E413" s="11"/>
@@ -14382,13 +14372,13 @@
       <c r="H413" s="15" t="s">
         <v>660</v>
       </c>
-      <c r="I413" s="55"/>
+      <c r="I413" s="54"/>
     </row>
     <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="15" t="s">
         <v>661</v>
       </c>
-      <c r="B414" s="51"/>
+      <c r="B414" s="50"/>
       <c r="C414" s="11"/>
       <c r="D414" s="11"/>
       <c r="E414" s="11"/>
@@ -14397,13 +14387,13 @@
       <c r="H414" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I414" s="52"/>
+      <c r="I414" s="51"/>
     </row>
     <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="15" t="s">
         <v>662</v>
       </c>
-      <c r="B415" s="51"/>
+      <c r="B415" s="50"/>
       <c r="C415" s="11"/>
       <c r="D415" s="11"/>
       <c r="E415" s="11"/>
@@ -14412,13 +14402,13 @@
       <c r="H415" s="15" t="s">
         <v>660</v>
       </c>
-      <c r="I415" s="56"/>
+      <c r="I415" s="55"/>
     </row>
     <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="B416" s="51"/>
+      <c r="B416" s="50"/>
       <c r="C416" s="11"/>
       <c r="D416" s="11"/>
       <c r="E416" s="11"/>
@@ -14427,13 +14417,13 @@
       <c r="H416" s="15" t="s">
         <v>621</v>
       </c>
-      <c r="I416" s="55"/>
+      <c r="I416" s="54"/>
     </row>
     <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="15" t="s">
         <v>664</v>
       </c>
-      <c r="B417" s="51"/>
+      <c r="B417" s="50"/>
       <c r="C417" s="11"/>
       <c r="D417" s="11"/>
       <c r="E417" s="11"/>
@@ -14442,13 +14432,13 @@
       <c r="H417" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="I417" s="52"/>
+      <c r="I417" s="51"/>
     </row>
     <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="14" t="s">
         <v>665</v>
       </c>
-      <c r="B418" s="51"/>
+      <c r="B418" s="50"/>
       <c r="C418" s="11"/>
       <c r="D418" s="11"/>
       <c r="E418" s="11"/>
@@ -14457,7 +14447,7 @@
       <c r="H418" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I418" s="52"/>
+      <c r="I418" s="51"/>
     </row>
     <row r="419" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="14" t="s">
@@ -14474,7 +14464,7 @@
       <c r="H419" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I419" s="52"/>
+      <c r="I419" s="51"/>
     </row>
     <row r="420" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="15" t="s">
@@ -14491,7 +14481,7 @@
       <c r="H420" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="I420" s="52"/>
+      <c r="I420" s="51"/>
     </row>
     <row r="421" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="14" t="s">
@@ -14508,7 +14498,7 @@
       <c r="H421" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I421" s="35"/>
+      <c r="I421" s="34"/>
     </row>
     <row r="422" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="14" t="s">
@@ -14525,7 +14515,7 @@
       <c r="H422" s="15" t="s">
         <v>669</v>
       </c>
-      <c r="I422" s="35"/>
+      <c r="I422" s="34"/>
     </row>
     <row r="423" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="14" t="s">
@@ -14542,13 +14532,13 @@
       <c r="H423" s="15" t="s">
         <v>621</v>
       </c>
-      <c r="I423" s="33"/>
+      <c r="I423" s="32"/>
     </row>
     <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="15" t="s">
         <v>670</v>
       </c>
-      <c r="B424" s="54"/>
+      <c r="B424" s="53"/>
       <c r="C424" s="11"/>
       <c r="D424" s="11"/>
       <c r="E424" s="11"/>
@@ -14563,7 +14553,7 @@
       <c r="A425" s="15" t="s">
         <v>672</v>
       </c>
-      <c r="B425" s="54"/>
+      <c r="B425" s="53"/>
       <c r="C425" s="11"/>
       <c r="D425" s="11"/>
       <c r="E425" s="11"/>
@@ -14578,13 +14568,13 @@
       <c r="A426" s="15" t="s">
         <v>674</v>
       </c>
-      <c r="B426" s="54"/>
+      <c r="B426" s="53"/>
       <c r="C426" s="11"/>
       <c r="D426" s="11"/>
       <c r="E426" s="11"/>
       <c r="F426" s="11"/>
       <c r="G426" s="11"/>
-      <c r="H426" s="26" t="s">
+      <c r="H426" s="24" t="s">
         <v>675</v>
       </c>
       <c r="I426" s="21"/>
@@ -14593,13 +14583,13 @@
       <c r="A427" s="15" t="s">
         <v>676</v>
       </c>
-      <c r="B427" s="54"/>
+      <c r="B427" s="53"/>
       <c r="C427" s="11"/>
       <c r="D427" s="11"/>
       <c r="E427" s="11"/>
       <c r="F427" s="11"/>
       <c r="G427" s="11"/>
-      <c r="H427" s="26" t="s">
+      <c r="H427" s="24" t="s">
         <v>677</v>
       </c>
       <c r="I427" s="21"/>
@@ -14608,13 +14598,13 @@
       <c r="A428" s="15" t="s">
         <v>678</v>
       </c>
-      <c r="B428" s="54"/>
+      <c r="B428" s="53"/>
       <c r="C428" s="11"/>
       <c r="D428" s="11"/>
       <c r="E428" s="11"/>
       <c r="F428" s="11"/>
       <c r="G428" s="11"/>
-      <c r="H428" s="26" t="s">
+      <c r="H428" s="24" t="s">
         <v>679</v>
       </c>
       <c r="I428" s="21"/>
@@ -14634,7 +14624,7 @@
       <c r="H429" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I429" s="53"/>
+      <c r="I429" s="52"/>
     </row>
     <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="15" t="s">
@@ -14648,10 +14638,10 @@
       <c r="E430" s="11"/>
       <c r="F430" s="11"/>
       <c r="G430" s="11"/>
-      <c r="H430" s="26" t="s">
+      <c r="H430" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="I430" s="53"/>
+      <c r="I430" s="52"/>
     </row>
     <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="15" t="s">
@@ -14668,7 +14658,7 @@
       <c r="H431" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I431" s="52"/>
+      <c r="I431" s="51"/>
     </row>
     <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="15" t="s">
@@ -14685,13 +14675,13 @@
       <c r="H432" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I432" s="52"/>
+      <c r="I432" s="51"/>
     </row>
     <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="41" t="s">
+      <c r="A433" s="40" t="s">
         <v>684</v>
       </c>
-      <c r="B433" s="54"/>
+      <c r="B433" s="53"/>
       <c r="C433" s="11"/>
       <c r="D433" s="11"/>
       <c r="E433" s="11"/>
@@ -14706,7 +14696,7 @@
       <c r="A434" s="14" t="s">
         <v>686</v>
       </c>
-      <c r="B434" s="57"/>
+      <c r="B434" s="56"/>
       <c r="C434" s="11"/>
       <c r="D434" s="11"/>
       <c r="E434" s="11"/>
@@ -14721,13 +14711,13 @@
       <c r="A435" s="14" t="s">
         <v>688</v>
       </c>
-      <c r="B435" s="57"/>
+      <c r="B435" s="56"/>
       <c r="C435" s="11"/>
       <c r="D435" s="11"/>
       <c r="E435" s="11"/>
       <c r="F435" s="11"/>
       <c r="G435" s="11"/>
-      <c r="H435" s="28" t="s">
+      <c r="H435" s="26" t="s">
         <v>689</v>
       </c>
       <c r="I435" s="13"/>
@@ -14742,7 +14732,7 @@
       <c r="E436" s="11"/>
       <c r="F436" s="11"/>
       <c r="G436" s="11"/>
-      <c r="H436" s="28" t="s">
+      <c r="H436" s="26" t="s">
         <v>9</v>
       </c>
       <c r="I436" s="13"/>
@@ -14759,7 +14749,7 @@
       <c r="E437" s="11"/>
       <c r="F437" s="11"/>
       <c r="G437" s="11"/>
-      <c r="H437" s="28" t="s">
+      <c r="H437" s="26" t="s">
         <v>9</v>
       </c>
       <c r="I437" s="13"/>
@@ -14768,7 +14758,7 @@
       <c r="A438" s="15" t="s">
         <v>692</v>
       </c>
-      <c r="B438" s="57"/>
+      <c r="B438" s="56"/>
       <c r="C438" s="11"/>
       <c r="D438" s="11"/>
       <c r="E438" s="11"/>
@@ -14783,13 +14773,13 @@
       <c r="A439" s="14" t="s">
         <v>694</v>
       </c>
-      <c r="B439" s="42"/>
+      <c r="B439" s="41"/>
       <c r="C439" s="11"/>
       <c r="D439" s="11"/>
       <c r="E439" s="11"/>
       <c r="F439" s="11"/>
       <c r="G439" s="11"/>
-      <c r="H439" s="28" t="s">
+      <c r="H439" s="26" t="s">
         <v>695</v>
       </c>
       <c r="I439" s="13"/>
@@ -14798,7 +14788,7 @@
       <c r="A440" s="14" t="s">
         <v>696</v>
       </c>
-      <c r="B440" s="42"/>
+      <c r="B440" s="41"/>
       <c r="C440" s="11"/>
       <c r="D440" s="11"/>
       <c r="E440" s="11"/>
@@ -14834,13 +14824,13 @@
       <c r="E442" s="11"/>
       <c r="F442" s="11"/>
       <c r="G442" s="11"/>
-      <c r="H442" s="26" t="s">
+      <c r="H442" s="24" t="s">
         <v>138</v>
       </c>
       <c r="I442" s="13"/>
     </row>
     <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="41" t="s">
+      <c r="A443" s="40" t="s">
         <v>701</v>
       </c>
       <c r="B443" s="10"/>
@@ -14855,7 +14845,7 @@
       <c r="I443" s="13"/>
     </row>
     <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="41" t="s">
+      <c r="A444" s="40" t="s">
         <v>703</v>
       </c>
       <c r="B444" s="10"/>
@@ -14870,7 +14860,7 @@
       <c r="I444" s="13"/>
     </row>
     <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="41" t="s">
+      <c r="A445" s="40" t="s">
         <v>705</v>
       </c>
       <c r="B445" s="10"/>
@@ -14885,7 +14875,7 @@
       <c r="I445" s="13"/>
     </row>
     <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="41" t="s">
+      <c r="A446" s="40" t="s">
         <v>706</v>
       </c>
       <c r="B446" s="18" t="s">
@@ -14899,7 +14889,7 @@
       <c r="H446" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I446" s="58"/>
+      <c r="I446" s="57"/>
     </row>
     <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="14" t="s">
@@ -14911,7 +14901,7 @@
       <c r="E447" s="11"/>
       <c r="F447" s="11"/>
       <c r="G447" s="11"/>
-      <c r="H447" s="34" t="s">
+      <c r="H447" s="33" t="s">
         <v>708</v>
       </c>
       <c r="I447" s="21"/>
@@ -14926,7 +14916,7 @@
       <c r="E448" s="11"/>
       <c r="F448" s="11"/>
       <c r="G448" s="11"/>
-      <c r="H448" s="34" t="s">
+      <c r="H448" s="33" t="s">
         <v>710</v>
       </c>
       <c r="I448" s="21"/>
@@ -14941,7 +14931,7 @@
       <c r="E449" s="11"/>
       <c r="F449" s="11"/>
       <c r="G449" s="11"/>
-      <c r="H449" s="34" t="s">
+      <c r="H449" s="33" t="s">
         <v>712</v>
       </c>
       <c r="I449" s="21"/>
@@ -14956,7 +14946,7 @@
       <c r="E450" s="11"/>
       <c r="F450" s="11"/>
       <c r="G450" s="11"/>
-      <c r="H450" s="34" t="s">
+      <c r="H450" s="33" t="s">
         <v>712</v>
       </c>
       <c r="I450" s="21"/>
@@ -14971,7 +14961,7 @@
       <c r="E451" s="11"/>
       <c r="F451" s="11"/>
       <c r="G451" s="11"/>
-      <c r="H451" s="34" t="s">
+      <c r="H451" s="33" t="s">
         <v>708</v>
       </c>
       <c r="I451" s="21"/>
@@ -14986,7 +14976,7 @@
       <c r="E452" s="11"/>
       <c r="F452" s="11"/>
       <c r="G452" s="11"/>
-      <c r="H452" s="34" t="s">
+      <c r="H452" s="33" t="s">
         <v>708</v>
       </c>
       <c r="I452" s="21"/>
@@ -15001,7 +14991,7 @@
       <c r="E453" s="11"/>
       <c r="F453" s="11"/>
       <c r="G453" s="11"/>
-      <c r="H453" s="34" t="s">
+      <c r="H453" s="33" t="s">
         <v>708</v>
       </c>
       <c r="I453" s="21"/>
@@ -15016,7 +15006,7 @@
       <c r="E454" s="11"/>
       <c r="F454" s="11"/>
       <c r="G454" s="11"/>
-      <c r="H454" s="34" t="s">
+      <c r="H454" s="33" t="s">
         <v>718</v>
       </c>
       <c r="I454" s="21"/>
@@ -15031,7 +15021,7 @@
       <c r="E455" s="11"/>
       <c r="F455" s="11"/>
       <c r="G455" s="11"/>
-      <c r="H455" s="34" t="s">
+      <c r="H455" s="33" t="s">
         <v>718</v>
       </c>
       <c r="I455" s="21"/>
@@ -15046,7 +15036,7 @@
       <c r="E456" s="11"/>
       <c r="F456" s="11"/>
       <c r="G456" s="11"/>
-      <c r="H456" s="34" t="s">
+      <c r="H456" s="33" t="s">
         <v>712</v>
       </c>
       <c r="I456" s="21"/>
@@ -15061,7 +15051,7 @@
       <c r="E457" s="11"/>
       <c r="F457" s="11"/>
       <c r="G457" s="11"/>
-      <c r="H457" s="34" t="s">
+      <c r="H457" s="33" t="s">
         <v>718</v>
       </c>
       <c r="I457" s="21"/>
@@ -15076,7 +15066,7 @@
       <c r="E458" s="11"/>
       <c r="F458" s="11"/>
       <c r="G458" s="11"/>
-      <c r="H458" s="34" t="s">
+      <c r="H458" s="33" t="s">
         <v>723</v>
       </c>
       <c r="I458" s="21"/>
@@ -15091,7 +15081,7 @@
       <c r="E459" s="11"/>
       <c r="F459" s="11"/>
       <c r="G459" s="11"/>
-      <c r="H459" s="34" t="s">
+      <c r="H459" s="33" t="s">
         <v>712</v>
       </c>
       <c r="I459" s="21"/>
@@ -15106,7 +15096,7 @@
       <c r="E460" s="11"/>
       <c r="F460" s="11"/>
       <c r="G460" s="11"/>
-      <c r="H460" s="34" t="s">
+      <c r="H460" s="33" t="s">
         <v>708</v>
       </c>
       <c r="I460" s="21"/>
@@ -15121,7 +15111,7 @@
       <c r="E461" s="11"/>
       <c r="F461" s="11"/>
       <c r="G461" s="11"/>
-      <c r="H461" s="34" t="s">
+      <c r="H461" s="33" t="s">
         <v>708</v>
       </c>
       <c r="I461" s="21"/>
@@ -15136,7 +15126,7 @@
       <c r="E462" s="11"/>
       <c r="F462" s="11"/>
       <c r="G462" s="11"/>
-      <c r="H462" s="34" t="s">
+      <c r="H462" s="33" t="s">
         <v>708</v>
       </c>
       <c r="I462" s="21"/>
@@ -15151,7 +15141,7 @@
       <c r="E463" s="11"/>
       <c r="F463" s="11"/>
       <c r="G463" s="11"/>
-      <c r="H463" s="34" t="s">
+      <c r="H463" s="33" t="s">
         <v>708</v>
       </c>
       <c r="I463" s="21"/>
@@ -15166,7 +15156,7 @@
       <c r="E464" s="11"/>
       <c r="F464" s="11"/>
       <c r="G464" s="11"/>
-      <c r="H464" s="34" t="s">
+      <c r="H464" s="33" t="s">
         <v>708</v>
       </c>
       <c r="I464" s="21"/>
@@ -15181,7 +15171,7 @@
       <c r="E465" s="11"/>
       <c r="F465" s="11"/>
       <c r="G465" s="11"/>
-      <c r="H465" s="34" t="s">
+      <c r="H465" s="33" t="s">
         <v>708</v>
       </c>
       <c r="I465" s="21"/>
@@ -15196,7 +15186,7 @@
       <c r="E466" s="11"/>
       <c r="F466" s="11"/>
       <c r="G466" s="11"/>
-      <c r="H466" s="34" t="s">
+      <c r="H466" s="33" t="s">
         <v>708</v>
       </c>
       <c r="I466" s="21"/>
@@ -15211,7 +15201,7 @@
       <c r="E467" s="11"/>
       <c r="F467" s="11"/>
       <c r="G467" s="11"/>
-      <c r="H467" s="34" t="s">
+      <c r="H467" s="33" t="s">
         <v>708</v>
       </c>
       <c r="I467" s="21"/>
@@ -15226,7 +15216,7 @@
       <c r="E468" s="11"/>
       <c r="F468" s="11"/>
       <c r="G468" s="11"/>
-      <c r="H468" s="34" t="s">
+      <c r="H468" s="33" t="s">
         <v>708</v>
       </c>
       <c r="I468" s="21"/>
@@ -15241,7 +15231,7 @@
       <c r="E469" s="11"/>
       <c r="F469" s="11"/>
       <c r="G469" s="11"/>
-      <c r="H469" s="34" t="s">
+      <c r="H469" s="33" t="s">
         <v>708</v>
       </c>
       <c r="I469" s="21"/>
@@ -15256,7 +15246,7 @@
       <c r="E470" s="11"/>
       <c r="F470" s="11"/>
       <c r="G470" s="11"/>
-      <c r="H470" s="34" t="s">
+      <c r="H470" s="33" t="s">
         <v>708</v>
       </c>
       <c r="I470" s="21"/>
@@ -15271,7 +15261,7 @@
       <c r="E471" s="11"/>
       <c r="F471" s="11"/>
       <c r="G471" s="11"/>
-      <c r="H471" s="34" t="s">
+      <c r="H471" s="33" t="s">
         <v>718</v>
       </c>
       <c r="I471" s="21"/>
@@ -15286,7 +15276,7 @@
       <c r="E472" s="11"/>
       <c r="F472" s="11"/>
       <c r="G472" s="11"/>
-      <c r="H472" s="34" t="s">
+      <c r="H472" s="33" t="s">
         <v>738</v>
       </c>
       <c r="I472" s="21"/>
@@ -15301,7 +15291,7 @@
       <c r="E473" s="11"/>
       <c r="F473" s="11"/>
       <c r="G473" s="11"/>
-      <c r="H473" s="34" t="s">
+      <c r="H473" s="33" t="s">
         <v>740</v>
       </c>
       <c r="I473" s="21"/>
@@ -15316,7 +15306,7 @@
       <c r="E474" s="11"/>
       <c r="F474" s="11"/>
       <c r="G474" s="11"/>
-      <c r="H474" s="34" t="s">
+      <c r="H474" s="33" t="s">
         <v>742</v>
       </c>
       <c r="I474" s="21"/>
@@ -15331,7 +15321,7 @@
       <c r="E475" s="11"/>
       <c r="F475" s="11"/>
       <c r="G475" s="11"/>
-      <c r="H475" s="34" t="s">
+      <c r="H475" s="33" t="s">
         <v>744</v>
       </c>
       <c r="I475" s="21"/>
@@ -15346,7 +15336,7 @@
       <c r="E476" s="11"/>
       <c r="F476" s="11"/>
       <c r="G476" s="11"/>
-      <c r="H476" s="34" t="s">
+      <c r="H476" s="33" t="s">
         <v>708</v>
       </c>
       <c r="I476" s="21"/>
@@ -15361,7 +15351,7 @@
       <c r="E477" s="11"/>
       <c r="F477" s="11"/>
       <c r="G477" s="11"/>
-      <c r="H477" s="34" t="s">
+      <c r="H477" s="33" t="s">
         <v>708</v>
       </c>
       <c r="I477" s="21"/>
@@ -15376,7 +15366,7 @@
       <c r="E478" s="11"/>
       <c r="F478" s="11"/>
       <c r="G478" s="11"/>
-      <c r="H478" s="34" t="s">
+      <c r="H478" s="33" t="s">
         <v>708</v>
       </c>
       <c r="I478" s="21"/>
@@ -15391,7 +15381,7 @@
       <c r="E479" s="11"/>
       <c r="F479" s="11"/>
       <c r="G479" s="11"/>
-      <c r="H479" s="34" t="s">
+      <c r="H479" s="33" t="s">
         <v>708</v>
       </c>
       <c r="I479" s="21"/>
@@ -15406,7 +15396,7 @@
       <c r="E480" s="11"/>
       <c r="F480" s="11"/>
       <c r="G480" s="11"/>
-      <c r="H480" s="34" t="s">
+      <c r="H480" s="33" t="s">
         <v>750</v>
       </c>
       <c r="I480" s="21"/>
@@ -15421,7 +15411,7 @@
       <c r="E481" s="11"/>
       <c r="F481" s="11"/>
       <c r="G481" s="11"/>
-      <c r="H481" s="34" t="s">
+      <c r="H481" s="33" t="s">
         <v>740</v>
       </c>
       <c r="I481" s="21"/>
@@ -15436,7 +15426,7 @@
       <c r="E482" s="11"/>
       <c r="F482" s="11"/>
       <c r="G482" s="11"/>
-      <c r="H482" s="34" t="s">
+      <c r="H482" s="33" t="s">
         <v>708</v>
       </c>
       <c r="I482" s="21"/>
@@ -15451,7 +15441,7 @@
       <c r="E483" s="11"/>
       <c r="F483" s="11"/>
       <c r="G483" s="11"/>
-      <c r="H483" s="34" t="s">
+      <c r="H483" s="33" t="s">
         <v>708</v>
       </c>
       <c r="I483" s="21"/>
@@ -15466,7 +15456,7 @@
       <c r="E484" s="11"/>
       <c r="F484" s="11"/>
       <c r="G484" s="11"/>
-      <c r="H484" s="34" t="s">
+      <c r="H484" s="33" t="s">
         <v>755</v>
       </c>
       <c r="I484" s="21"/>
@@ -15481,7 +15471,7 @@
       <c r="E485" s="11"/>
       <c r="F485" s="11"/>
       <c r="G485" s="11"/>
-      <c r="H485" s="34" t="s">
+      <c r="H485" s="33" t="s">
         <v>757</v>
       </c>
       <c r="I485" s="21"/>
@@ -15496,7 +15486,7 @@
       <c r="E486" s="11"/>
       <c r="F486" s="11"/>
       <c r="G486" s="11"/>
-      <c r="H486" s="34" t="s">
+      <c r="H486" s="33" t="s">
         <v>708</v>
       </c>
       <c r="I486" s="21"/>
@@ -15511,7 +15501,7 @@
       <c r="E487" s="11"/>
       <c r="F487" s="11"/>
       <c r="G487" s="11"/>
-      <c r="H487" s="34" t="s">
+      <c r="H487" s="33" t="s">
         <v>708</v>
       </c>
       <c r="I487" s="21"/>
@@ -15526,7 +15516,7 @@
       <c r="E488" s="11"/>
       <c r="F488" s="11"/>
       <c r="G488" s="11"/>
-      <c r="H488" s="34" t="s">
+      <c r="H488" s="33" t="s">
         <v>708</v>
       </c>
       <c r="I488" s="21"/>
@@ -15541,7 +15531,7 @@
       <c r="E489" s="11"/>
       <c r="F489" s="11"/>
       <c r="G489" s="11"/>
-      <c r="H489" s="34" t="s">
+      <c r="H489" s="33" t="s">
         <v>708</v>
       </c>
       <c r="I489" s="21"/>
@@ -15556,7 +15546,7 @@
       <c r="E490" s="11"/>
       <c r="F490" s="11"/>
       <c r="G490" s="11"/>
-      <c r="H490" s="34" t="s">
+      <c r="H490" s="33" t="s">
         <v>763</v>
       </c>
       <c r="I490" s="21"/>
@@ -15571,7 +15561,7 @@
       <c r="E491" s="11"/>
       <c r="F491" s="11"/>
       <c r="G491" s="11"/>
-      <c r="H491" s="34" t="s">
+      <c r="H491" s="33" t="s">
         <v>708</v>
       </c>
       <c r="I491" s="21"/>
@@ -15586,7 +15576,7 @@
       <c r="E492" s="11"/>
       <c r="F492" s="11"/>
       <c r="G492" s="11"/>
-      <c r="H492" s="34" t="s">
+      <c r="H492" s="33" t="s">
         <v>766</v>
       </c>
       <c r="I492" s="21"/>
@@ -15601,7 +15591,7 @@
       <c r="E493" s="11"/>
       <c r="F493" s="11"/>
       <c r="G493" s="11"/>
-      <c r="H493" s="26" t="s">
+      <c r="H493" s="24" t="s">
         <v>768</v>
       </c>
       <c r="I493" s="13"/>
@@ -15625,7 +15615,7 @@
       <c r="A495" s="14" t="s">
         <v>770</v>
       </c>
-      <c r="B495" s="59"/>
+      <c r="B495" s="58"/>
       <c r="C495" s="11"/>
       <c r="D495" s="11"/>
       <c r="E495" s="11"/>
@@ -15646,7 +15636,7 @@
       <c r="E496" s="11"/>
       <c r="F496" s="11"/>
       <c r="G496" s="11"/>
-      <c r="H496" s="26" t="s">
+      <c r="H496" s="24" t="s">
         <v>189</v>
       </c>
       <c r="I496" s="13"/>
@@ -15685,7 +15675,7 @@
       <c r="A499" s="14" t="s">
         <v>775</v>
       </c>
-      <c r="B499" s="57"/>
+      <c r="B499" s="56"/>
       <c r="C499" s="11"/>
       <c r="D499" s="11"/>
       <c r="E499" s="11"/>
@@ -15700,7 +15690,7 @@
       <c r="A500" s="14" t="s">
         <v>776</v>
       </c>
-      <c r="B500" s="42"/>
+      <c r="B500" s="41"/>
       <c r="C500" s="11"/>
       <c r="D500" s="11"/>
       <c r="E500" s="11"/>
@@ -15760,7 +15750,7 @@
       <c r="A504" s="15" t="s">
         <v>782</v>
       </c>
-      <c r="B504" s="42"/>
+      <c r="B504" s="41"/>
       <c r="C504" s="11"/>
       <c r="D504" s="11"/>
       <c r="E504" s="11"/>
@@ -15775,7 +15765,7 @@
       <c r="A505" s="15" t="s">
         <v>783</v>
       </c>
-      <c r="B505" s="42"/>
+      <c r="B505" s="41"/>
       <c r="C505" s="11"/>
       <c r="D505" s="11"/>
       <c r="E505" s="11"/>
@@ -15790,7 +15780,7 @@
       <c r="A506" s="15" t="s">
         <v>784</v>
       </c>
-      <c r="B506" s="42"/>
+      <c r="B506" s="41"/>
       <c r="C506" s="11"/>
       <c r="D506" s="11"/>
       <c r="E506" s="11"/>
@@ -15814,7 +15804,7 @@
       <c r="H507" s="15" t="s">
         <v>786</v>
       </c>
-      <c r="I507" s="60"/>
+      <c r="I507" s="59"/>
     </row>
     <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="14" t="s">
@@ -15829,7 +15819,7 @@
       <c r="H508" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="I508" s="60"/>
+      <c r="I508" s="59"/>
     </row>
     <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="14" t="s">
@@ -15844,7 +15834,7 @@
       <c r="H509" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="I509" s="58"/>
+      <c r="I509" s="57"/>
     </row>
     <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="14" t="s">
@@ -15856,10 +15846,10 @@
       <c r="E510" s="11"/>
       <c r="F510" s="11"/>
       <c r="G510" s="11"/>
-      <c r="H510" s="26" t="s">
+      <c r="H510" s="24" t="s">
         <v>596</v>
       </c>
-      <c r="I510" s="58"/>
+      <c r="I510" s="57"/>
     </row>
     <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="14" t="s">
@@ -15901,7 +15891,7 @@
       <c r="E513" s="11"/>
       <c r="F513" s="11"/>
       <c r="G513" s="11"/>
-      <c r="H513" s="26" t="s">
+      <c r="H513" s="24" t="s">
         <v>794</v>
       </c>
       <c r="I513" s="13"/>
@@ -15916,7 +15906,7 @@
       <c r="E514" s="11"/>
       <c r="F514" s="11"/>
       <c r="G514" s="11"/>
-      <c r="H514" s="26" t="s">
+      <c r="H514" s="24" t="s">
         <v>794</v>
       </c>
       <c r="I514" s="13"/>
@@ -15931,7 +15921,7 @@
       <c r="E515" s="11"/>
       <c r="F515" s="11"/>
       <c r="G515" s="11"/>
-      <c r="H515" s="26" t="s">
+      <c r="H515" s="24" t="s">
         <v>797</v>
       </c>
       <c r="I515" s="13"/>
@@ -15970,7 +15960,7 @@
       <c r="A518" s="14" t="s">
         <v>801</v>
       </c>
-      <c r="B518" s="42"/>
+      <c r="B518" s="41"/>
       <c r="C518" s="11"/>
       <c r="D518" s="11"/>
       <c r="E518" s="11"/>
@@ -15985,7 +15975,7 @@
       <c r="A519" s="14" t="s">
         <v>802</v>
       </c>
-      <c r="B519" s="42"/>
+      <c r="B519" s="41"/>
       <c r="C519" s="11"/>
       <c r="D519" s="11"/>
       <c r="E519" s="11"/>
@@ -16000,7 +15990,7 @@
       <c r="A520" s="14" t="s">
         <v>803</v>
       </c>
-      <c r="B520" s="42"/>
+      <c r="B520" s="41"/>
       <c r="C520" s="11"/>
       <c r="D520" s="11"/>
       <c r="E520" s="11"/>
@@ -16015,7 +16005,7 @@
       <c r="A521" s="14" t="s">
         <v>805</v>
       </c>
-      <c r="B521" s="42"/>
+      <c r="B521" s="41"/>
       <c r="C521" s="11"/>
       <c r="D521" s="11"/>
       <c r="E521" s="11"/>
@@ -16051,10 +16041,10 @@
       <c r="E523" s="11"/>
       <c r="F523" s="11"/>
       <c r="G523" s="11"/>
-      <c r="H523" s="26" t="s">
+      <c r="H523" s="24" t="s">
         <v>809</v>
       </c>
-      <c r="I523" s="61"/>
+      <c r="I523" s="60"/>
     </row>
     <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="14" t="s">
@@ -16069,7 +16059,7 @@
       <c r="H524" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I524" s="61"/>
+      <c r="I524" s="60"/>
     </row>
     <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="15" t="s">
@@ -16096,7 +16086,7 @@
       <c r="E526" s="11"/>
       <c r="F526" s="11"/>
       <c r="G526" s="11"/>
-      <c r="H526" s="26" t="s">
+      <c r="H526" s="24" t="s">
         <v>814</v>
       </c>
       <c r="I526" s="13"/>
@@ -16105,7 +16095,7 @@
       <c r="A527" s="15" t="s">
         <v>815</v>
       </c>
-      <c r="B527" s="42"/>
+      <c r="B527" s="41"/>
       <c r="C527" s="11"/>
       <c r="D527" s="11"/>
       <c r="E527" s="11"/>
@@ -16144,7 +16134,7 @@
       <c r="H529" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="I529" s="62"/>
+      <c r="I529" s="61"/>
     </row>
     <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="14" t="s">
@@ -16159,7 +16149,7 @@
       <c r="H530" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="I530" s="62"/>
+      <c r="I530" s="61"/>
     </row>
     <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="14" t="s">
@@ -16174,7 +16164,7 @@
       <c r="H531" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="I531" s="62"/>
+      <c r="I531" s="61"/>
     </row>
     <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="14" t="s">
@@ -16191,13 +16181,13 @@
       <c r="H532" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="I532" s="62"/>
+      <c r="I532" s="61"/>
     </row>
     <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="14" t="s">
         <v>821</v>
       </c>
-      <c r="B533" s="42"/>
+      <c r="B533" s="41"/>
       <c r="C533" s="11"/>
       <c r="D533" s="11"/>
       <c r="E533" s="11"/>
@@ -16227,7 +16217,7 @@
       <c r="A535" s="14" t="s">
         <v>824</v>
       </c>
-      <c r="B535" s="42"/>
+      <c r="B535" s="41"/>
       <c r="C535" s="11"/>
       <c r="D535" s="11"/>
       <c r="E535" s="11"/>
@@ -16242,13 +16232,13 @@
       <c r="A536" s="14" t="s">
         <v>826</v>
       </c>
-      <c r="B536" s="42"/>
+      <c r="B536" s="41"/>
       <c r="C536" s="11"/>
       <c r="D536" s="11"/>
       <c r="E536" s="11"/>
       <c r="F536" s="11"/>
       <c r="G536" s="11"/>
-      <c r="H536" s="26" t="s">
+      <c r="H536" s="24" t="s">
         <v>827</v>
       </c>
       <c r="I536" s="13"/>
@@ -16257,13 +16247,13 @@
       <c r="A537" s="15" t="s">
         <v>828</v>
       </c>
-      <c r="B537" s="42"/>
+      <c r="B537" s="41"/>
       <c r="C537" s="11"/>
       <c r="D537" s="11"/>
       <c r="E537" s="11"/>
       <c r="F537" s="11"/>
       <c r="G537" s="11"/>
-      <c r="H537" s="26" t="s">
+      <c r="H537" s="24" t="s">
         <v>827</v>
       </c>
       <c r="I537" s="13"/>
@@ -16272,7 +16262,7 @@
       <c r="A538" s="15" t="s">
         <v>829</v>
       </c>
-      <c r="B538" s="42"/>
+      <c r="B538" s="41"/>
       <c r="C538" s="11"/>
       <c r="D538" s="11"/>
       <c r="E538" s="11"/>
@@ -16287,7 +16277,7 @@
       <c r="A539" s="15" t="s">
         <v>831</v>
       </c>
-      <c r="B539" s="42"/>
+      <c r="B539" s="41"/>
       <c r="C539" s="11"/>
       <c r="D539" s="11"/>
       <c r="E539" s="11"/>
@@ -16362,7 +16352,7 @@
       <c r="A544" s="15" t="s">
         <v>838</v>
       </c>
-      <c r="B544" s="57"/>
+      <c r="B544" s="56"/>
       <c r="C544" s="11"/>
       <c r="D544" s="11"/>
       <c r="E544" s="11"/>
@@ -16377,7 +16367,7 @@
       <c r="A545" s="15" t="s">
         <v>839</v>
       </c>
-      <c r="B545" s="42"/>
+      <c r="B545" s="41"/>
       <c r="C545" s="11"/>
       <c r="D545" s="11"/>
       <c r="E545" s="11"/>
@@ -16422,7 +16412,7 @@
       <c r="A548" s="15" t="s">
         <v>843</v>
       </c>
-      <c r="B548" s="57"/>
+      <c r="B548" s="56"/>
       <c r="C548" s="11"/>
       <c r="D548" s="11"/>
       <c r="E548" s="11"/>
@@ -16445,10 +16435,10 @@
       <c r="E549" s="11"/>
       <c r="F549" s="11"/>
       <c r="G549" s="11"/>
-      <c r="H549" s="26" t="s">
+      <c r="H549" s="24" t="s">
         <v>845</v>
       </c>
-      <c r="I549" s="33" t="s">
+      <c r="I549" s="32" t="s">
         <v>846</v>
       </c>
     </row>
@@ -16464,10 +16454,10 @@
       <c r="E550" s="11"/>
       <c r="F550" s="11"/>
       <c r="G550" s="11"/>
-      <c r="H550" s="26" t="s">
+      <c r="H550" s="24" t="s">
         <v>596</v>
       </c>
-      <c r="I550" s="33" t="s">
+      <c r="I550" s="32" t="s">
         <v>846</v>
       </c>
     </row>
@@ -16486,7 +16476,7 @@
       <c r="H551" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="I551" s="33" t="s">
+      <c r="I551" s="32" t="s">
         <v>846</v>
       </c>
     </row>
@@ -16505,7 +16495,7 @@
       <c r="H552" s="15" t="s">
         <v>850</v>
       </c>
-      <c r="I552" s="33" t="s">
+      <c r="I552" s="32" t="s">
         <v>846</v>
       </c>
     </row>
@@ -16524,7 +16514,7 @@
       <c r="H553" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="I553" s="33" t="s">
+      <c r="I553" s="32" t="s">
         <v>846</v>
       </c>
     </row>
@@ -16543,7 +16533,7 @@
       <c r="H554" s="15" t="s">
         <v>853</v>
       </c>
-      <c r="I554" s="33" t="s">
+      <c r="I554" s="32" t="s">
         <v>846</v>
       </c>
     </row>
@@ -16562,7 +16552,7 @@
       <c r="H555" s="14" t="s">
         <v>855</v>
       </c>
-      <c r="I555" s="33" t="s">
+      <c r="I555" s="32" t="s">
         <v>846</v>
       </c>
     </row>
@@ -16578,10 +16568,10 @@
       <c r="E556" s="11"/>
       <c r="F556" s="11"/>
       <c r="G556" s="11"/>
-      <c r="H556" s="26" t="s">
+      <c r="H556" s="24" t="s">
         <v>857</v>
       </c>
-      <c r="I556" s="33" t="s">
+      <c r="I556" s="32" t="s">
         <v>846</v>
       </c>
     </row>
@@ -16597,10 +16587,10 @@
       <c r="E557" s="11"/>
       <c r="F557" s="11"/>
       <c r="G557" s="11"/>
-      <c r="H557" s="26" t="s">
+      <c r="H557" s="24" t="s">
         <v>859</v>
       </c>
-      <c r="I557" s="33" t="s">
+      <c r="I557" s="32" t="s">
         <v>846</v>
       </c>
     </row>
@@ -16616,10 +16606,10 @@
       <c r="E558" s="11"/>
       <c r="F558" s="11"/>
       <c r="G558" s="11"/>
-      <c r="H558" s="26" t="s">
+      <c r="H558" s="24" t="s">
         <v>845</v>
       </c>
-      <c r="I558" s="33" t="s">
+      <c r="I558" s="32" t="s">
         <v>846</v>
       </c>
     </row>
@@ -16635,10 +16625,10 @@
       <c r="E559" s="11"/>
       <c r="F559" s="11"/>
       <c r="G559" s="11"/>
-      <c r="H559" s="26" t="s">
+      <c r="H559" s="24" t="s">
         <v>596</v>
       </c>
-      <c r="I559" s="33" t="s">
+      <c r="I559" s="32" t="s">
         <v>846</v>
       </c>
     </row>
@@ -16654,10 +16644,10 @@
       <c r="E560" s="11"/>
       <c r="F560" s="11"/>
       <c r="G560" s="11"/>
-      <c r="H560" s="26" t="s">
+      <c r="H560" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="I560" s="33" t="s">
+      <c r="I560" s="32" t="s">
         <v>846</v>
       </c>
     </row>
@@ -16676,7 +16666,7 @@
       <c r="H561" s="15" t="s">
         <v>864</v>
       </c>
-      <c r="I561" s="33" t="s">
+      <c r="I561" s="32" t="s">
         <v>846</v>
       </c>
     </row>
@@ -16692,10 +16682,10 @@
       <c r="E562" s="11"/>
       <c r="F562" s="11"/>
       <c r="G562" s="11"/>
-      <c r="H562" s="26" t="s">
+      <c r="H562" s="24" t="s">
         <v>866</v>
       </c>
-      <c r="I562" s="33" t="s">
+      <c r="I562" s="32" t="s">
         <v>846</v>
       </c>
     </row>
@@ -16714,7 +16704,7 @@
       <c r="H563" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="I563" s="33" t="s">
+      <c r="I563" s="32" t="s">
         <v>846</v>
       </c>
     </row>
@@ -16733,7 +16723,7 @@
       <c r="H564" s="15" t="s">
         <v>869</v>
       </c>
-      <c r="I564" s="33" t="s">
+      <c r="I564" s="32" t="s">
         <v>870</v>
       </c>
     </row>
@@ -16752,7 +16742,7 @@
       <c r="H565" s="15" t="s">
         <v>869</v>
       </c>
-      <c r="I565" s="33" t="s">
+      <c r="I565" s="32" t="s">
         <v>870</v>
       </c>
     </row>
@@ -16771,7 +16761,7 @@
       <c r="H566" s="15" t="s">
         <v>869</v>
       </c>
-      <c r="I566" s="33" t="s">
+      <c r="I566" s="32" t="s">
         <v>870</v>
       </c>
     </row>
@@ -16790,7 +16780,7 @@
       <c r="H567" s="15" t="s">
         <v>869</v>
       </c>
-      <c r="I567" s="33" t="s">
+      <c r="I567" s="32" t="s">
         <v>870</v>
       </c>
     </row>
@@ -16806,10 +16796,10 @@
       <c r="E568" s="11"/>
       <c r="F568" s="11"/>
       <c r="G568" s="11"/>
-      <c r="H568" s="63" t="s">
+      <c r="H568" s="62" t="s">
         <v>875</v>
       </c>
-      <c r="I568" s="33" t="s">
+      <c r="I568" s="32" t="s">
         <v>876</v>
       </c>
     </row>
@@ -16825,10 +16815,10 @@
       <c r="E569" s="11"/>
       <c r="F569" s="11"/>
       <c r="G569" s="11"/>
-      <c r="H569" s="64" t="s">
+      <c r="H569" s="63" t="s">
         <v>875</v>
       </c>
-      <c r="I569" s="33" t="s">
+      <c r="I569" s="32" t="s">
         <v>876</v>
       </c>
     </row>
@@ -16847,7 +16837,7 @@
       <c r="H570" s="15" t="s">
         <v>879</v>
       </c>
-      <c r="I570" s="33" t="s">
+      <c r="I570" s="32" t="s">
         <v>846</v>
       </c>
     </row>
@@ -16866,7 +16856,7 @@
       <c r="H571" s="15" t="s">
         <v>881</v>
       </c>
-      <c r="I571" s="33" t="s">
+      <c r="I571" s="32" t="s">
         <v>846</v>
       </c>
     </row>
@@ -16882,10 +16872,10 @@
       <c r="E572" s="11"/>
       <c r="F572" s="11"/>
       <c r="G572" s="11"/>
-      <c r="H572" s="65" t="s">
+      <c r="H572" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="I572" s="33" t="s">
+      <c r="I572" s="32" t="s">
         <v>846</v>
       </c>
     </row>
@@ -16901,10 +16891,10 @@
       <c r="E573" s="11"/>
       <c r="F573" s="11"/>
       <c r="G573" s="11"/>
-      <c r="H573" s="65" t="s">
+      <c r="H573" s="64" t="s">
         <v>884</v>
       </c>
-      <c r="I573" s="33" t="s">
+      <c r="I573" s="32" t="s">
         <v>846</v>
       </c>
     </row>
@@ -16923,7 +16913,7 @@
       <c r="H574" s="14" t="s">
         <v>886</v>
       </c>
-      <c r="I574" s="33" t="s">
+      <c r="I574" s="32" t="s">
         <v>846</v>
       </c>
     </row>
@@ -16938,7 +16928,7 @@
       <c r="F575" s="11"/>
       <c r="G575" s="11"/>
       <c r="H575" s="14"/>
-      <c r="I575" s="33" t="s">
+      <c r="I575" s="32" t="s">
         <v>846</v>
       </c>
     </row>
@@ -16954,10 +16944,10 @@
       <c r="E576" s="11"/>
       <c r="F576" s="11"/>
       <c r="G576" s="11"/>
-      <c r="H576" s="65" t="s">
+      <c r="H576" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="I576" s="62" t="s">
+      <c r="I576" s="61" t="s">
         <v>846</v>
       </c>
     </row>
@@ -16973,10 +16963,10 @@
       <c r="E577" s="11"/>
       <c r="F577" s="11"/>
       <c r="G577" s="11"/>
-      <c r="H577" s="65" t="s">
+      <c r="H577" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="I577" s="62" t="s">
+      <c r="I577" s="61" t="s">
         <v>846</v>
       </c>
     </row>
@@ -16995,7 +16985,7 @@
       <c r="H578" s="15" t="s">
         <v>890</v>
       </c>
-      <c r="I578" s="62" t="s">
+      <c r="I578" s="61" t="s">
         <v>846</v>
       </c>
     </row>
@@ -17011,10 +17001,10 @@
       <c r="E579" s="11"/>
       <c r="F579" s="11"/>
       <c r="G579" s="11"/>
-      <c r="H579" s="65" t="s">
+      <c r="H579" s="64" t="s">
         <v>892</v>
       </c>
-      <c r="I579" s="62" t="s">
+      <c r="I579" s="61" t="s">
         <v>846</v>
       </c>
     </row>
@@ -17030,10 +17020,10 @@
       <c r="E580" s="11"/>
       <c r="F580" s="11"/>
       <c r="G580" s="11"/>
-      <c r="H580" s="65" t="s">
+      <c r="H580" s="64" t="s">
         <v>894</v>
       </c>
-      <c r="I580" s="62" t="s">
+      <c r="I580" s="61" t="s">
         <v>846</v>
       </c>
     </row>
@@ -17049,10 +17039,10 @@
       <c r="E581" s="11"/>
       <c r="F581" s="11"/>
       <c r="G581" s="11"/>
-      <c r="H581" s="65" t="s">
+      <c r="H581" s="64" t="s">
         <v>894</v>
       </c>
-      <c r="I581" s="62" t="s">
+      <c r="I581" s="61" t="s">
         <v>846</v>
       </c>
     </row>
@@ -17068,10 +17058,10 @@
       <c r="E582" s="11"/>
       <c r="F582" s="11"/>
       <c r="G582" s="11"/>
-      <c r="H582" s="65" t="s">
+      <c r="H582" s="64" t="s">
         <v>894</v>
       </c>
-      <c r="I582" s="62" t="s">
+      <c r="I582" s="61" t="s">
         <v>846</v>
       </c>
     </row>
@@ -17087,10 +17077,10 @@
       <c r="E583" s="11"/>
       <c r="F583" s="11"/>
       <c r="G583" s="11"/>
-      <c r="H583" s="65" t="s">
+      <c r="H583" s="64" t="s">
         <v>894</v>
       </c>
-      <c r="I583" s="62" t="s">
+      <c r="I583" s="61" t="s">
         <v>846</v>
       </c>
     </row>
@@ -17106,10 +17096,10 @@
       <c r="E584" s="11"/>
       <c r="F584" s="11"/>
       <c r="G584" s="11"/>
-      <c r="H584" s="65" t="s">
+      <c r="H584" s="64" t="s">
         <v>899</v>
       </c>
-      <c r="I584" s="62" t="s">
+      <c r="I584" s="61" t="s">
         <v>846</v>
       </c>
     </row>
@@ -17125,10 +17115,10 @@
       <c r="E585" s="11"/>
       <c r="F585" s="11"/>
       <c r="G585" s="11"/>
-      <c r="H585" s="66" t="s">
+      <c r="H585" s="65" t="s">
         <v>596</v>
       </c>
-      <c r="I585" s="62" t="s">
+      <c r="I585" s="61" t="s">
         <v>846</v>
       </c>
     </row>
@@ -17147,7 +17137,7 @@
       <c r="H586" s="15" t="s">
         <v>902</v>
       </c>
-      <c r="I586" s="62" t="s">
+      <c r="I586" s="61" t="s">
         <v>846</v>
       </c>
     </row>
@@ -17163,10 +17153,10 @@
       <c r="E587" s="11"/>
       <c r="F587" s="11"/>
       <c r="G587" s="11"/>
-      <c r="H587" s="65" t="s">
+      <c r="H587" s="64" t="s">
         <v>904</v>
       </c>
-      <c r="I587" s="62" t="s">
+      <c r="I587" s="61" t="s">
         <v>846</v>
       </c>
     </row>
@@ -17185,7 +17175,7 @@
       <c r="H588" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I588" s="62" t="s">
+      <c r="I588" s="61" t="s">
         <v>906</v>
       </c>
     </row>
@@ -17204,7 +17194,7 @@
       <c r="H589" s="15" t="s">
         <v>908</v>
       </c>
-      <c r="I589" s="62" t="s">
+      <c r="I589" s="61" t="s">
         <v>909</v>
       </c>
     </row>
@@ -17220,10 +17210,10 @@
       <c r="E590" s="11"/>
       <c r="F590" s="11"/>
       <c r="G590" s="11"/>
-      <c r="H590" s="66" t="s">
+      <c r="H590" s="65" t="s">
         <v>596</v>
       </c>
-      <c r="I590" s="62" t="s">
+      <c r="I590" s="61" t="s">
         <v>846</v>
       </c>
     </row>
@@ -17242,7 +17232,7 @@
       <c r="H591" s="15" t="s">
         <v>890</v>
       </c>
-      <c r="I591" s="62" t="s">
+      <c r="I591" s="61" t="s">
         <v>846</v>
       </c>
     </row>
@@ -17261,7 +17251,7 @@
       <c r="H592" s="15" t="s">
         <v>902</v>
       </c>
-      <c r="I592" s="62" t="s">
+      <c r="I592" s="61" t="s">
         <v>846</v>
       </c>
     </row>
@@ -17277,10 +17267,10 @@
       <c r="E593" s="11"/>
       <c r="F593" s="11"/>
       <c r="G593" s="11"/>
-      <c r="H593" s="65" t="s">
+      <c r="H593" s="64" t="s">
         <v>914</v>
       </c>
-      <c r="I593" s="62" t="s">
+      <c r="I593" s="61" t="s">
         <v>846</v>
       </c>
     </row>
@@ -17296,10 +17286,10 @@
       <c r="E594" s="11"/>
       <c r="F594" s="11"/>
       <c r="G594" s="11"/>
-      <c r="H594" s="63" t="s">
+      <c r="H594" s="62" t="s">
         <v>916</v>
       </c>
-      <c r="I594" s="62" t="s">
+      <c r="I594" s="61" t="s">
         <v>846</v>
       </c>
     </row>
@@ -17315,10 +17305,10 @@
       <c r="E595" s="11"/>
       <c r="F595" s="11"/>
       <c r="G595" s="11"/>
-      <c r="H595" s="63" t="s">
+      <c r="H595" s="62" t="s">
         <v>918</v>
       </c>
-      <c r="I595" s="62" t="s">
+      <c r="I595" s="61" t="s">
         <v>846</v>
       </c>
     </row>
@@ -17334,10 +17324,10 @@
       <c r="E596" s="11"/>
       <c r="F596" s="11"/>
       <c r="G596" s="11"/>
-      <c r="H596" s="65" t="s">
+      <c r="H596" s="64" t="s">
         <v>920</v>
       </c>
-      <c r="I596" s="62" t="s">
+      <c r="I596" s="61" t="s">
         <v>846</v>
       </c>
     </row>
@@ -17353,10 +17343,10 @@
       <c r="E597" s="11"/>
       <c r="F597" s="11"/>
       <c r="G597" s="11"/>
-      <c r="H597" s="65" t="s">
+      <c r="H597" s="64" t="s">
         <v>920</v>
       </c>
-      <c r="I597" s="62" t="s">
+      <c r="I597" s="61" t="s">
         <v>846</v>
       </c>
     </row>
@@ -17372,10 +17362,10 @@
       <c r="E598" s="11"/>
       <c r="F598" s="11"/>
       <c r="G598" s="11"/>
-      <c r="H598" s="63" t="s">
+      <c r="H598" s="62" t="s">
         <v>923</v>
       </c>
-      <c r="I598" s="62" t="s">
+      <c r="I598" s="61" t="s">
         <v>846</v>
       </c>
     </row>
@@ -17391,10 +17381,10 @@
       <c r="E599" s="11"/>
       <c r="F599" s="11"/>
       <c r="G599" s="11"/>
-      <c r="H599" s="26" t="s">
+      <c r="H599" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="I599" s="62" t="s">
+      <c r="I599" s="61" t="s">
         <v>846</v>
       </c>
     </row>
@@ -17410,10 +17400,10 @@
       <c r="E600" s="11"/>
       <c r="F600" s="11"/>
       <c r="G600" s="11"/>
-      <c r="H600" s="26" t="s">
+      <c r="H600" s="24" t="s">
         <v>927</v>
       </c>
-      <c r="I600" s="62" t="s">
+      <c r="I600" s="61" t="s">
         <v>846</v>
       </c>
     </row>
@@ -17432,7 +17422,7 @@
       <c r="H601" s="15" t="s">
         <v>929</v>
       </c>
-      <c r="I601" s="62" t="s">
+      <c r="I601" s="61" t="s">
         <v>846</v>
       </c>
     </row>
@@ -17448,10 +17438,10 @@
       <c r="E602" s="11"/>
       <c r="F602" s="11"/>
       <c r="G602" s="11"/>
-      <c r="H602" s="26" t="s">
+      <c r="H602" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="I602" s="62" t="s">
+      <c r="I602" s="61" t="s">
         <v>846</v>
       </c>
     </row>
@@ -17467,10 +17457,10 @@
       <c r="E603" s="11"/>
       <c r="F603" s="11"/>
       <c r="G603" s="11"/>
-      <c r="H603" s="26" t="s">
+      <c r="H603" s="24" t="s">
         <v>927</v>
       </c>
-      <c r="I603" s="62" t="s">
+      <c r="I603" s="61" t="s">
         <v>846</v>
       </c>
     </row>
@@ -17489,7 +17479,7 @@
       <c r="H604" s="15" t="s">
         <v>929</v>
       </c>
-      <c r="I604" s="62" t="s">
+      <c r="I604" s="61" t="s">
         <v>846</v>
       </c>
     </row>
@@ -17508,7 +17498,7 @@
       <c r="H605" s="15" t="s">
         <v>934</v>
       </c>
-      <c r="I605" s="62" t="s">
+      <c r="I605" s="61" t="s">
         <v>846</v>
       </c>
     </row>
@@ -17524,10 +17514,10 @@
       <c r="E606" s="11"/>
       <c r="F606" s="11"/>
       <c r="G606" s="11"/>
-      <c r="H606" s="26" t="s">
+      <c r="H606" s="24" t="s">
         <v>927</v>
       </c>
-      <c r="I606" s="62" t="s">
+      <c r="I606" s="61" t="s">
         <v>846</v>
       </c>
     </row>
@@ -17546,7 +17536,7 @@
       <c r="H607" s="15" t="s">
         <v>937</v>
       </c>
-      <c r="I607" s="62" t="s">
+      <c r="I607" s="61" t="s">
         <v>846</v>
       </c>
     </row>
@@ -17562,10 +17552,10 @@
       <c r="E608" s="11"/>
       <c r="F608" s="11"/>
       <c r="G608" s="11"/>
-      <c r="H608" s="67" t="s">
+      <c r="H608" s="66" t="s">
         <v>939</v>
       </c>
-      <c r="I608" s="62" t="s">
+      <c r="I608" s="61" t="s">
         <v>846</v>
       </c>
     </row>
@@ -17581,10 +17571,10 @@
       <c r="E609" s="11"/>
       <c r="F609" s="11"/>
       <c r="G609" s="11"/>
-      <c r="H609" s="68" t="s">
+      <c r="H609" s="67" t="s">
         <v>939</v>
       </c>
-      <c r="I609" s="62" t="s">
+      <c r="I609" s="61" t="s">
         <v>846</v>
       </c>
     </row>
@@ -17600,10 +17590,10 @@
       <c r="E610" s="11"/>
       <c r="F610" s="11"/>
       <c r="G610" s="11"/>
-      <c r="H610" s="26" t="s">
+      <c r="H610" s="24" t="s">
         <v>942</v>
       </c>
-      <c r="I610" s="62" t="s">
+      <c r="I610" s="61" t="s">
         <v>846</v>
       </c>
     </row>
@@ -17619,10 +17609,10 @@
       <c r="E611" s="11"/>
       <c r="F611" s="11"/>
       <c r="G611" s="11"/>
-      <c r="H611" s="26" t="s">
+      <c r="H611" s="24" t="s">
         <v>944</v>
       </c>
-      <c r="I611" s="62" t="s">
+      <c r="I611" s="61" t="s">
         <v>846</v>
       </c>
     </row>
@@ -17638,10 +17628,10 @@
       <c r="E612" s="11"/>
       <c r="F612" s="11"/>
       <c r="G612" s="11"/>
-      <c r="H612" s="64" t="s">
+      <c r="H612" s="63" t="s">
         <v>946</v>
       </c>
-      <c r="I612" s="62" t="s">
+      <c r="I612" s="61" t="s">
         <v>846</v>
       </c>
     </row>
@@ -17657,10 +17647,10 @@
       <c r="E613" s="11"/>
       <c r="F613" s="11"/>
       <c r="G613" s="11"/>
-      <c r="H613" s="64" t="s">
+      <c r="H613" s="63" t="s">
         <v>948</v>
       </c>
-      <c r="I613" s="62" t="s">
+      <c r="I613" s="61" t="s">
         <v>846</v>
       </c>
     </row>
@@ -17668,7 +17658,7 @@
       <c r="A614" s="15" t="s">
         <v>949</v>
       </c>
-      <c r="B614" s="27"/>
+      <c r="B614" s="25"/>
       <c r="C614" s="11"/>
       <c r="D614" s="11"/>
       <c r="E614" s="11"/>
@@ -17683,7 +17673,7 @@
       <c r="A615" s="15" t="s">
         <v>950</v>
       </c>
-      <c r="B615" s="27"/>
+      <c r="B615" s="25"/>
       <c r="C615" s="11"/>
       <c r="D615" s="11"/>
       <c r="E615" s="11"/>
@@ -17698,7 +17688,7 @@
       <c r="A616" s="15" t="s">
         <v>952</v>
       </c>
-      <c r="B616" s="27"/>
+      <c r="B616" s="25"/>
       <c r="C616" s="11"/>
       <c r="D616" s="11"/>
       <c r="E616" s="11"/>
@@ -17713,7 +17703,7 @@
       <c r="A617" s="15" t="s">
         <v>954</v>
       </c>
-      <c r="B617" s="27"/>
+      <c r="B617" s="25"/>
       <c r="C617" s="11"/>
       <c r="D617" s="11"/>
       <c r="E617" s="11"/>
@@ -17728,7 +17718,7 @@
       <c r="A618" s="15" t="s">
         <v>955</v>
       </c>
-      <c r="B618" s="29"/>
+      <c r="B618" s="27"/>
       <c r="C618" s="11"/>
       <c r="D618" s="11"/>
       <c r="E618" s="11"/>
@@ -17743,7 +17733,7 @@
       <c r="A619" s="15" t="s">
         <v>956</v>
       </c>
-      <c r="B619" s="29"/>
+      <c r="B619" s="27"/>
       <c r="C619" s="11"/>
       <c r="D619" s="11"/>
       <c r="E619" s="11"/>
@@ -17758,7 +17748,7 @@
       <c r="A620" s="15" t="s">
         <v>958</v>
       </c>
-      <c r="B620" s="29"/>
+      <c r="B620" s="27"/>
       <c r="C620" s="11"/>
       <c r="D620" s="11"/>
       <c r="E620" s="11"/>
@@ -17794,7 +17784,7 @@
       <c r="E622" s="11"/>
       <c r="F622" s="11"/>
       <c r="G622" s="11"/>
-      <c r="H622" s="26" t="s">
+      <c r="H622" s="24" t="s">
         <v>809</v>
       </c>
       <c r="I622" s="21"/>
@@ -17809,7 +17799,7 @@
       <c r="E623" s="11"/>
       <c r="F623" s="11"/>
       <c r="G623" s="11"/>
-      <c r="H623" s="26" t="s">
+      <c r="H623" s="24" t="s">
         <v>596</v>
       </c>
       <c r="I623" s="21"/>
@@ -17824,7 +17814,7 @@
       <c r="E624" s="11"/>
       <c r="F624" s="11"/>
       <c r="G624" s="11"/>
-      <c r="H624" s="26" t="s">
+      <c r="H624" s="24" t="s">
         <v>596</v>
       </c>
       <c r="I624" s="21"/>
@@ -17833,7 +17823,7 @@
       <c r="A625" s="14" t="s">
         <v>965</v>
       </c>
-      <c r="B625" s="27"/>
+      <c r="B625" s="25"/>
       <c r="C625" s="11"/>
       <c r="D625" s="11"/>
       <c r="E625" s="11"/>
@@ -17848,7 +17838,7 @@
       <c r="A626" s="14" t="s">
         <v>967</v>
       </c>
-      <c r="B626" s="27"/>
+      <c r="B626" s="25"/>
       <c r="C626" s="11"/>
       <c r="D626" s="11"/>
       <c r="E626" s="11"/>
@@ -17938,7 +17928,7 @@
       <c r="A632" s="15" t="s">
         <v>975</v>
       </c>
-      <c r="B632" s="27"/>
+      <c r="B632" s="25"/>
       <c r="C632" s="11"/>
       <c r="D632" s="11"/>
       <c r="E632" s="11"/>
@@ -17998,7 +17988,7 @@
       <c r="A636" s="15" t="s">
         <v>980</v>
       </c>
-      <c r="B636" s="69"/>
+      <c r="B636" s="68"/>
       <c r="C636" s="11"/>
       <c r="D636" s="11"/>
       <c r="E636" s="11"/>
@@ -18013,7 +18003,7 @@
       <c r="A637" s="15" t="s">
         <v>982</v>
       </c>
-      <c r="B637" s="29"/>
+      <c r="B637" s="27"/>
       <c r="C637" s="11"/>
       <c r="D637" s="11"/>
       <c r="E637" s="11"/>
@@ -18073,7 +18063,7 @@
       <c r="A641" s="15" t="s">
         <v>986</v>
       </c>
-      <c r="B641" s="29"/>
+      <c r="B641" s="27"/>
       <c r="C641" s="11"/>
       <c r="D641" s="11"/>
       <c r="E641" s="11"/>
@@ -18103,7 +18093,7 @@
       <c r="A643" s="15" t="s">
         <v>987</v>
       </c>
-      <c r="B643" s="29"/>
+      <c r="B643" s="27"/>
       <c r="C643" s="11"/>
       <c r="D643" s="11"/>
       <c r="E643" s="11"/>
@@ -18133,7 +18123,7 @@
       <c r="A645" s="15" t="s">
         <v>989</v>
       </c>
-      <c r="B645" s="29"/>
+      <c r="B645" s="27"/>
       <c r="C645" s="11"/>
       <c r="D645" s="11"/>
       <c r="E645" s="11"/>
@@ -18163,7 +18153,7 @@
       <c r="A647" s="15" t="s">
         <v>991</v>
       </c>
-      <c r="B647" s="29"/>
+      <c r="B647" s="27"/>
       <c r="C647" s="11"/>
       <c r="D647" s="11"/>
       <c r="E647" s="11"/>
@@ -18178,7 +18168,7 @@
       <c r="A648" s="15" t="s">
         <v>992</v>
       </c>
-      <c r="B648" s="29"/>
+      <c r="B648" s="27"/>
       <c r="C648" s="11"/>
       <c r="D648" s="11"/>
       <c r="E648" s="11"/>
@@ -18193,7 +18183,7 @@
       <c r="A649" s="15" t="s">
         <v>994</v>
       </c>
-      <c r="B649" s="70"/>
+      <c r="B649" s="69"/>
       <c r="C649" s="11"/>
       <c r="D649" s="11"/>
       <c r="E649" s="11"/>
@@ -18208,7 +18198,7 @@
       <c r="A650" s="15" t="s">
         <v>996</v>
       </c>
-      <c r="B650" s="70"/>
+      <c r="B650" s="69"/>
       <c r="C650" s="11"/>
       <c r="D650" s="11"/>
       <c r="E650" s="11"/>
@@ -18223,7 +18213,7 @@
       <c r="A651" s="15" t="s">
         <v>998</v>
       </c>
-      <c r="B651" s="27"/>
+      <c r="B651" s="25"/>
       <c r="C651" s="11"/>
       <c r="D651" s="11"/>
       <c r="E651" s="11"/>
@@ -18253,7 +18243,7 @@
       <c r="A653" s="15" t="s">
         <v>1002</v>
       </c>
-      <c r="B653" s="29"/>
+      <c r="B653" s="27"/>
       <c r="C653" s="11"/>
       <c r="D653" s="11"/>
       <c r="E653" s="11"/>
@@ -18268,13 +18258,13 @@
       <c r="A654" s="14" t="s">
         <v>1004</v>
       </c>
-      <c r="B654" s="29"/>
+      <c r="B654" s="27"/>
       <c r="C654" s="11"/>
       <c r="D654" s="11"/>
       <c r="E654" s="11"/>
       <c r="F654" s="11"/>
       <c r="G654" s="11"/>
-      <c r="H654" s="64" t="s">
+      <c r="H654" s="63" t="s">
         <v>908</v>
       </c>
       <c r="I654" s="21"/>
@@ -18291,7 +18281,7 @@
       <c r="E655" s="11"/>
       <c r="F655" s="11"/>
       <c r="G655" s="11"/>
-      <c r="H655" s="64" t="s">
+      <c r="H655" s="63" t="s">
         <v>1006</v>
       </c>
       <c r="I655" s="21" t="s">
@@ -18302,13 +18292,13 @@
       <c r="A656" s="14" t="s">
         <v>1008</v>
       </c>
-      <c r="B656" s="70"/>
+      <c r="B656" s="69"/>
       <c r="C656" s="11"/>
       <c r="D656" s="11"/>
       <c r="E656" s="11"/>
       <c r="F656" s="11"/>
       <c r="G656" s="11"/>
-      <c r="H656" s="64" t="s">
+      <c r="H656" s="63" t="s">
         <v>908</v>
       </c>
       <c r="I656" s="21"/>
@@ -18317,13 +18307,13 @@
       <c r="A657" s="14" t="s">
         <v>1009</v>
       </c>
-      <c r="B657" s="70"/>
+      <c r="B657" s="69"/>
       <c r="C657" s="11"/>
       <c r="D657" s="11"/>
       <c r="E657" s="11"/>
       <c r="F657" s="11"/>
       <c r="G657" s="11"/>
-      <c r="H657" s="64" t="s">
+      <c r="H657" s="63" t="s">
         <v>1010</v>
       </c>
       <c r="I657" s="21"/>
@@ -18332,13 +18322,13 @@
       <c r="A658" s="14" t="s">
         <v>1011</v>
       </c>
-      <c r="B658" s="70"/>
+      <c r="B658" s="69"/>
       <c r="C658" s="11"/>
       <c r="D658" s="11"/>
       <c r="E658" s="11"/>
       <c r="F658" s="11"/>
       <c r="G658" s="11"/>
-      <c r="H658" s="64" t="s">
+      <c r="H658" s="63" t="s">
         <v>1012</v>
       </c>
       <c r="I658" s="21"/>
@@ -18347,13 +18337,13 @@
       <c r="A659" s="14" t="s">
         <v>1013</v>
       </c>
-      <c r="B659" s="27"/>
+      <c r="B659" s="25"/>
       <c r="C659" s="11"/>
       <c r="D659" s="11"/>
       <c r="E659" s="11"/>
       <c r="F659" s="11"/>
       <c r="G659" s="11"/>
-      <c r="H659" s="64" t="s">
+      <c r="H659" s="63" t="s">
         <v>875</v>
       </c>
       <c r="I659" s="21"/>
@@ -18362,13 +18352,13 @@
       <c r="A660" s="14" t="s">
         <v>1014</v>
       </c>
-      <c r="B660" s="27"/>
+      <c r="B660" s="25"/>
       <c r="C660" s="11"/>
       <c r="D660" s="11"/>
       <c r="E660" s="11"/>
       <c r="F660" s="11"/>
       <c r="G660" s="11"/>
-      <c r="H660" s="64" t="s">
+      <c r="H660" s="63" t="s">
         <v>1015</v>
       </c>
       <c r="I660" s="21"/>
@@ -18377,13 +18367,13 @@
       <c r="A661" s="14" t="s">
         <v>1016</v>
       </c>
-      <c r="B661" s="27"/>
+      <c r="B661" s="25"/>
       <c r="C661" s="11"/>
       <c r="D661" s="11"/>
       <c r="E661" s="11"/>
       <c r="F661" s="11"/>
       <c r="G661" s="11"/>
-      <c r="H661" s="64" t="s">
+      <c r="H661" s="63" t="s">
         <v>1017</v>
       </c>
       <c r="I661" s="21"/>
@@ -18392,13 +18382,13 @@
       <c r="A662" s="14" t="s">
         <v>1018</v>
       </c>
-      <c r="B662" s="27"/>
+      <c r="B662" s="25"/>
       <c r="C662" s="11"/>
       <c r="D662" s="11"/>
       <c r="E662" s="11"/>
       <c r="F662" s="11"/>
       <c r="G662" s="11"/>
-      <c r="H662" s="64" t="s">
+      <c r="H662" s="63" t="s">
         <v>1015</v>
       </c>
       <c r="I662" s="21"/>
@@ -18407,7 +18397,7 @@
       <c r="A663" s="14" t="s">
         <v>1019</v>
       </c>
-      <c r="B663" s="70"/>
+      <c r="B663" s="69"/>
       <c r="C663" s="11"/>
       <c r="D663" s="11"/>
       <c r="E663" s="11"/>
@@ -18422,7 +18412,7 @@
       <c r="A664" s="14" t="s">
         <v>1021</v>
       </c>
-      <c r="B664" s="70"/>
+      <c r="B664" s="69"/>
       <c r="C664" s="11"/>
       <c r="D664" s="11"/>
       <c r="E664" s="11"/>
@@ -18437,7 +18427,7 @@
       <c r="A665" s="15" t="s">
         <v>1022</v>
       </c>
-      <c r="B665" s="70"/>
+      <c r="B665" s="69"/>
       <c r="C665" s="11"/>
       <c r="D665" s="11"/>
       <c r="E665" s="11"/>
@@ -18452,7 +18442,7 @@
       <c r="A666" s="15" t="s">
         <v>1024</v>
       </c>
-      <c r="B666" s="27"/>
+      <c r="B666" s="25"/>
       <c r="C666" s="11"/>
       <c r="D666" s="11"/>
       <c r="E666" s="11"/>
@@ -18587,7 +18577,7 @@
       <c r="A675" s="15" t="s">
         <v>952</v>
       </c>
-      <c r="B675" s="29"/>
+      <c r="B675" s="27"/>
       <c r="C675" s="11"/>
       <c r="D675" s="11"/>
       <c r="E675" s="11"/>
@@ -18649,7 +18639,7 @@
       <c r="A679" s="15" t="s">
         <v>1036</v>
       </c>
-      <c r="B679" s="29"/>
+      <c r="B679" s="27"/>
       <c r="C679" s="11"/>
       <c r="D679" s="11"/>
       <c r="E679" s="11"/>
@@ -18664,7 +18654,7 @@
       <c r="A680" s="15" t="s">
         <v>1038</v>
       </c>
-      <c r="B680" s="27"/>
+      <c r="B680" s="25"/>
       <c r="C680" s="11"/>
       <c r="D680" s="11"/>
       <c r="E680" s="11"/>
@@ -18679,7 +18669,7 @@
       <c r="A681" s="15" t="s">
         <v>1040</v>
       </c>
-      <c r="B681" s="27"/>
+      <c r="B681" s="25"/>
       <c r="C681" s="11"/>
       <c r="D681" s="11"/>
       <c r="E681" s="11"/>
@@ -18694,7 +18684,7 @@
       <c r="A682" s="15" t="s">
         <v>1042</v>
       </c>
-      <c r="B682" s="29"/>
+      <c r="B682" s="27"/>
       <c r="C682" s="11"/>
       <c r="D682" s="11"/>
       <c r="E682" s="11"/>
@@ -18709,7 +18699,7 @@
       <c r="A683" s="15" t="s">
         <v>1044</v>
       </c>
-      <c r="B683" s="29"/>
+      <c r="B683" s="27"/>
       <c r="C683" s="11"/>
       <c r="D683" s="11"/>
       <c r="E683" s="11"/>
@@ -18724,7 +18714,7 @@
       <c r="A684" s="15" t="s">
         <v>1046</v>
       </c>
-      <c r="B684" s="29"/>
+      <c r="B684" s="27"/>
       <c r="C684" s="11"/>
       <c r="D684" s="11"/>
       <c r="E684" s="11"/>
@@ -18739,7 +18729,7 @@
       <c r="A685" s="15" t="s">
         <v>1047</v>
       </c>
-      <c r="B685" s="29"/>
+      <c r="B685" s="27"/>
       <c r="C685" s="11"/>
       <c r="D685" s="11"/>
       <c r="E685" s="11"/>
@@ -18754,7 +18744,7 @@
       <c r="A686" s="15" t="s">
         <v>1048</v>
       </c>
-      <c r="B686" s="29"/>
+      <c r="B686" s="27"/>
       <c r="C686" s="11"/>
       <c r="D686" s="11"/>
       <c r="E686" s="11"/>
@@ -18769,7 +18759,7 @@
       <c r="A687" s="15" t="s">
         <v>1049</v>
       </c>
-      <c r="B687" s="29"/>
+      <c r="B687" s="27"/>
       <c r="C687" s="11"/>
       <c r="D687" s="11"/>
       <c r="E687" s="11"/>
@@ -18784,7 +18774,7 @@
       <c r="A688" s="15" t="s">
         <v>1050</v>
       </c>
-      <c r="B688" s="29"/>
+      <c r="B688" s="27"/>
       <c r="C688" s="11"/>
       <c r="D688" s="11"/>
       <c r="E688" s="11"/>
@@ -18799,7 +18789,7 @@
       <c r="A689" s="15" t="s">
         <v>1051</v>
       </c>
-      <c r="B689" s="29"/>
+      <c r="B689" s="27"/>
       <c r="C689" s="11"/>
       <c r="D689" s="11"/>
       <c r="E689" s="11"/>
@@ -18814,7 +18804,7 @@
       <c r="A690" s="15" t="s">
         <v>1052</v>
       </c>
-      <c r="B690" s="29"/>
+      <c r="B690" s="27"/>
       <c r="C690" s="11"/>
       <c r="D690" s="11"/>
       <c r="E690" s="11"/>
@@ -18829,7 +18819,7 @@
       <c r="A691" s="15" t="s">
         <v>1054</v>
       </c>
-      <c r="B691" s="29"/>
+      <c r="B691" s="27"/>
       <c r="C691" s="11"/>
       <c r="D691" s="11"/>
       <c r="E691" s="11"/>
@@ -18844,7 +18834,7 @@
       <c r="A692" s="15" t="s">
         <v>1055</v>
       </c>
-      <c r="B692" s="29"/>
+      <c r="B692" s="27"/>
       <c r="C692" s="11"/>
       <c r="D692" s="11"/>
       <c r="E692" s="11"/>
@@ -18859,7 +18849,7 @@
       <c r="A693" s="15" t="s">
         <v>1056</v>
       </c>
-      <c r="B693" s="29"/>
+      <c r="B693" s="27"/>
       <c r="C693" s="11"/>
       <c r="D693" s="11"/>
       <c r="E693" s="11"/>
@@ -18874,7 +18864,7 @@
       <c r="A694" s="15" t="s">
         <v>1057</v>
       </c>
-      <c r="B694" s="29"/>
+      <c r="B694" s="27"/>
       <c r="C694" s="11"/>
       <c r="D694" s="11"/>
       <c r="E694" s="11"/>
@@ -18889,7 +18879,7 @@
       <c r="A695" s="15" t="s">
         <v>1058</v>
       </c>
-      <c r="B695" s="29"/>
+      <c r="B695" s="27"/>
       <c r="C695" s="11"/>
       <c r="D695" s="11"/>
       <c r="E695" s="11"/>
@@ -18904,7 +18894,7 @@
       <c r="A696" s="15" t="s">
         <v>1060</v>
       </c>
-      <c r="B696" s="29"/>
+      <c r="B696" s="27"/>
       <c r="C696" s="11"/>
       <c r="D696" s="11"/>
       <c r="E696" s="11"/>
@@ -18919,7 +18909,7 @@
       <c r="A697" s="15" t="s">
         <v>1062</v>
       </c>
-      <c r="B697" s="29"/>
+      <c r="B697" s="27"/>
       <c r="C697" s="11"/>
       <c r="D697" s="11"/>
       <c r="E697" s="11"/>
@@ -18934,7 +18924,7 @@
       <c r="A698" s="15" t="s">
         <v>1063</v>
       </c>
-      <c r="B698" s="29"/>
+      <c r="B698" s="27"/>
       <c r="C698" s="11"/>
       <c r="D698" s="11"/>
       <c r="E698" s="11"/>
@@ -18949,7 +18939,7 @@
       <c r="A699" s="15" t="s">
         <v>1064</v>
       </c>
-      <c r="B699" s="29"/>
+      <c r="B699" s="27"/>
       <c r="C699" s="11"/>
       <c r="D699" s="11"/>
       <c r="E699" s="11"/>
@@ -18964,7 +18954,7 @@
       <c r="A700" s="15" t="s">
         <v>1065</v>
       </c>
-      <c r="B700" s="29"/>
+      <c r="B700" s="27"/>
       <c r="C700" s="11"/>
       <c r="D700" s="11"/>
       <c r="E700" s="11"/>
@@ -18979,7 +18969,7 @@
       <c r="A701" s="15" t="s">
         <v>1067</v>
       </c>
-      <c r="B701" s="29"/>
+      <c r="B701" s="27"/>
       <c r="C701" s="11"/>
       <c r="D701" s="11"/>
       <c r="E701" s="11"/>
@@ -18994,7 +18984,7 @@
       <c r="A702" s="15" t="s">
         <v>1069</v>
       </c>
-      <c r="B702" s="29"/>
+      <c r="B702" s="27"/>
       <c r="C702" s="11"/>
       <c r="D702" s="11"/>
       <c r="E702" s="11"/>
@@ -19009,7 +18999,7 @@
       <c r="A703" s="15" t="s">
         <v>1071</v>
       </c>
-      <c r="B703" s="29"/>
+      <c r="B703" s="27"/>
       <c r="C703" s="11"/>
       <c r="D703" s="11"/>
       <c r="E703" s="11"/>
@@ -19024,7 +19014,7 @@
       <c r="A704" s="15" t="s">
         <v>1072</v>
       </c>
-      <c r="B704" s="29"/>
+      <c r="B704" s="27"/>
       <c r="C704" s="11"/>
       <c r="D704" s="11"/>
       <c r="E704" s="11"/>
@@ -19096,16 +19086,16 @@
       <c r="I708" s="21"/>
     </row>
     <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A709" s="71" t="s">
+      <c r="A709" s="70" t="s">
         <v>1080</v>
       </c>
-      <c r="B709" s="71"/>
-      <c r="C709" s="71"/>
-      <c r="D709" s="71"/>
+      <c r="B709" s="70"/>
+      <c r="C709" s="70"/>
+      <c r="D709" s="70"/>
       <c r="E709" s="11"/>
       <c r="F709" s="11"/>
       <c r="G709" s="11"/>
-      <c r="H709" s="71"/>
+      <c r="H709" s="70"/>
       <c r="I709" s="21"/>
     </row>
     <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19157,7 +19147,7 @@
       <c r="A713" s="15" t="s">
         <v>1085</v>
       </c>
-      <c r="B713" s="29"/>
+      <c r="B713" s="27"/>
       <c r="C713" s="11"/>
       <c r="D713" s="11"/>
       <c r="E713" s="11"/>
@@ -19256,7 +19246,7 @@
       <c r="H719" s="15" t="s">
         <v>1099</v>
       </c>
-      <c r="I719" s="62"/>
+      <c r="I719" s="61"/>
     </row>
     <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="14" t="s">
@@ -19271,7 +19261,7 @@
       <c r="H720" s="15" t="s">
         <v>1101</v>
       </c>
-      <c r="I720" s="62"/>
+      <c r="I720" s="61"/>
     </row>
     <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="14" t="s">
@@ -19286,7 +19276,7 @@
       <c r="H721" s="15" t="s">
         <v>1101</v>
       </c>
-      <c r="I721" s="62"/>
+      <c r="I721" s="61"/>
     </row>
     <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="14" t="s">
@@ -19301,7 +19291,7 @@
       <c r="H722" s="15" t="s">
         <v>1101</v>
       </c>
-      <c r="I722" s="62"/>
+      <c r="I722" s="61"/>
     </row>
     <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="14" t="s">
@@ -19316,7 +19306,7 @@
       <c r="H723" s="15" t="s">
         <v>1105</v>
       </c>
-      <c r="I723" s="62"/>
+      <c r="I723" s="61"/>
     </row>
     <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="15" t="s">
@@ -19331,13 +19321,13 @@
       <c r="H724" s="15" t="s">
         <v>1107</v>
       </c>
-      <c r="I724" s="62"/>
+      <c r="I724" s="61"/>
     </row>
     <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="14" t="s">
         <v>1108</v>
       </c>
-      <c r="B725" s="57"/>
+      <c r="B725" s="56"/>
       <c r="C725" s="11"/>
       <c r="D725" s="11"/>
       <c r="E725" s="11"/>
@@ -19346,7 +19336,7 @@
       <c r="H725" s="15" t="s">
         <v>1109</v>
       </c>
-      <c r="I725" s="62"/>
+      <c r="I725" s="61"/>
     </row>
     <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="14" t="s">
@@ -19361,9 +19351,9 @@
       <c r="H726" s="15" t="s">
         <v>1111</v>
       </c>
-      <c r="I726" s="62"/>
-    </row>
-    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I726" s="61"/>
+    </row>
+    <row r="727" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="14" t="s">
         <v>1112</v>
       </c>
@@ -19376,28 +19366,28 @@
       <c r="H727" s="15" t="s">
         <v>1113</v>
       </c>
-      <c r="I727" s="62"/>
+      <c r="I727" s="61"/>
     </row>
     <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="14" t="s">
         <v>1114</v>
       </c>
-      <c r="B728" s="72"/>
+      <c r="B728" s="71"/>
       <c r="C728" s="11"/>
       <c r="D728" s="11"/>
       <c r="E728" s="11"/>
       <c r="F728" s="11"/>
       <c r="G728" s="11"/>
-      <c r="H728" s="46" t="s">
+      <c r="H728" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="I728" s="62"/>
+      <c r="I728" s="61"/>
     </row>
     <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="14" t="s">
         <v>1115</v>
       </c>
-      <c r="B729" s="72"/>
+      <c r="B729" s="71"/>
       <c r="C729" s="11"/>
       <c r="D729" s="11"/>
       <c r="E729" s="11"/>
@@ -19406,13 +19396,13 @@
       <c r="H729" s="15" t="s">
         <v>1116</v>
       </c>
-      <c r="I729" s="62"/>
+      <c r="I729" s="61"/>
     </row>
     <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="14" t="s">
         <v>1117</v>
       </c>
-      <c r="B730" s="72"/>
+      <c r="B730" s="71"/>
       <c r="C730" s="11"/>
       <c r="D730" s="11"/>
       <c r="E730" s="11"/>
@@ -19421,146 +19411,146 @@
       <c r="H730" s="15" t="s">
         <v>1118</v>
       </c>
-      <c r="I730" s="62"/>
+      <c r="I730" s="61"/>
     </row>
     <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="14" t="s">
         <v>1119</v>
       </c>
-      <c r="B731" s="72"/>
+      <c r="B731" s="71"/>
       <c r="C731" s="11"/>
       <c r="D731" s="11"/>
       <c r="E731" s="11"/>
       <c r="F731" s="11"/>
       <c r="G731" s="11"/>
-      <c r="H731" s="46" t="s">
+      <c r="H731" s="45" t="s">
         <v>1120</v>
       </c>
-      <c r="I731" s="62"/>
+      <c r="I731" s="61"/>
     </row>
     <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="14" t="s">
         <v>1121</v>
       </c>
-      <c r="B732" s="72"/>
+      <c r="B732" s="71"/>
       <c r="C732" s="11"/>
       <c r="D732" s="11"/>
       <c r="E732" s="11"/>
       <c r="F732" s="11"/>
       <c r="G732" s="11"/>
-      <c r="H732" s="46" t="s">
+      <c r="H732" s="45" t="s">
         <v>1122</v>
       </c>
-      <c r="I732" s="62"/>
+      <c r="I732" s="61"/>
     </row>
     <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="14" t="s">
         <v>1123</v>
       </c>
-      <c r="B733" s="72"/>
+      <c r="B733" s="71"/>
       <c r="C733" s="11"/>
       <c r="D733" s="11"/>
       <c r="E733" s="11"/>
       <c r="F733" s="11"/>
       <c r="G733" s="11"/>
-      <c r="H733" s="46" t="s">
+      <c r="H733" s="45" t="s">
         <v>1124</v>
       </c>
-      <c r="I733" s="62"/>
+      <c r="I733" s="61"/>
     </row>
     <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="14" t="s">
         <v>1125</v>
       </c>
-      <c r="B734" s="72"/>
+      <c r="B734" s="71"/>
       <c r="C734" s="11"/>
       <c r="D734" s="11"/>
       <c r="E734" s="11"/>
       <c r="F734" s="11"/>
       <c r="G734" s="11"/>
-      <c r="H734" s="46" t="s">
+      <c r="H734" s="45" t="s">
         <v>1126</v>
       </c>
-      <c r="I734" s="62"/>
+      <c r="I734" s="61"/>
     </row>
     <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="14" t="s">
         <v>1127</v>
       </c>
-      <c r="B735" s="72"/>
+      <c r="B735" s="71"/>
       <c r="C735" s="11"/>
       <c r="D735" s="11"/>
       <c r="E735" s="11"/>
       <c r="F735" s="11"/>
       <c r="G735" s="11"/>
-      <c r="H735" s="46" t="s">
+      <c r="H735" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="I735" s="62"/>
+      <c r="I735" s="61"/>
     </row>
     <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="14" t="s">
         <v>1128</v>
       </c>
-      <c r="B736" s="72"/>
+      <c r="B736" s="71"/>
       <c r="C736" s="11"/>
       <c r="D736" s="11"/>
       <c r="E736" s="11"/>
       <c r="F736" s="11"/>
       <c r="G736" s="11"/>
-      <c r="H736" s="46" t="s">
+      <c r="H736" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="I736" s="62"/>
+      <c r="I736" s="61"/>
     </row>
     <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="14" t="s">
         <v>1129</v>
       </c>
-      <c r="B737" s="72"/>
+      <c r="B737" s="71"/>
       <c r="C737" s="11"/>
       <c r="D737" s="11"/>
       <c r="E737" s="11"/>
       <c r="F737" s="11"/>
       <c r="G737" s="11"/>
-      <c r="H737" s="46" t="s">
+      <c r="H737" s="45" t="s">
         <v>1130</v>
       </c>
-      <c r="I737" s="62"/>
+      <c r="I737" s="61"/>
     </row>
     <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="14" t="s">
         <v>1131</v>
       </c>
-      <c r="B738" s="72"/>
+      <c r="B738" s="71"/>
       <c r="C738" s="11"/>
       <c r="D738" s="11"/>
       <c r="E738" s="11"/>
       <c r="F738" s="11"/>
       <c r="G738" s="11"/>
-      <c r="H738" s="46"/>
-      <c r="I738" s="62"/>
+      <c r="H738" s="45"/>
+      <c r="I738" s="61"/>
     </row>
     <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="14" t="s">
         <v>1132</v>
       </c>
-      <c r="B739" s="72"/>
+      <c r="B739" s="71"/>
       <c r="C739" s="11"/>
       <c r="D739" s="11"/>
       <c r="E739" s="11"/>
       <c r="F739" s="11"/>
       <c r="G739" s="11"/>
-      <c r="H739" s="46"/>
-      <c r="I739" s="62"/>
+      <c r="H739" s="45"/>
+      <c r="I739" s="61"/>
     </row>
     <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A740" s="73"/>
-      <c r="E740" s="74"/>
-      <c r="F740" s="74"/>
-      <c r="G740" s="74"/>
-      <c r="H740" s="75"/>
-      <c r="I740" s="75"/>
+      <c r="A740" s="72"/>
+      <c r="E740" s="73"/>
+      <c r="F740" s="73"/>
+      <c r="G740" s="73"/>
+      <c r="H740" s="74"/>
+      <c r="I740" s="74"/>
     </row>
     <row r="741" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="14" t="s">
@@ -19574,10 +19564,10 @@
       <c r="E741" s="11"/>
       <c r="F741" s="11"/>
       <c r="G741" s="11"/>
-      <c r="H741" s="26" t="s">
+      <c r="H741" s="24" t="s">
         <v>1134</v>
       </c>
-      <c r="I741" s="33" t="s">
+      <c r="I741" s="32" t="s">
         <v>846</v>
       </c>
     </row>
@@ -19593,10 +19583,10 @@
       <c r="E742" s="11"/>
       <c r="F742" s="11"/>
       <c r="G742" s="11"/>
-      <c r="H742" s="26" t="s">
+      <c r="H742" s="24" t="s">
         <v>1136</v>
       </c>
-      <c r="I742" s="33" t="s">
+      <c r="I742" s="32" t="s">
         <v>846</v>
       </c>
     </row>
@@ -19615,7 +19605,7 @@
       <c r="H743" s="15" t="s">
         <v>1138</v>
       </c>
-      <c r="I743" s="33" t="s">
+      <c r="I743" s="32" t="s">
         <v>846</v>
       </c>
     </row>
@@ -19634,7 +19624,7 @@
       <c r="H744" s="15" t="s">
         <v>1140</v>
       </c>
-      <c r="I744" s="33" t="s">
+      <c r="I744" s="32" t="s">
         <v>846</v>
       </c>
     </row>
@@ -19653,7 +19643,7 @@
       <c r="H745" s="9" t="s">
         <v>1142</v>
       </c>
-      <c r="I745" s="33" t="s">
+      <c r="I745" s="32" t="s">
         <v>846</v>
       </c>
     </row>
@@ -19672,7 +19662,7 @@
       <c r="H746" s="15" t="s">
         <v>1140</v>
       </c>
-      <c r="I746" s="33" t="s">
+      <c r="I746" s="32" t="s">
         <v>846</v>
       </c>
     </row>
